--- a/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00222066</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Comparison Between Abstention and Intrauterine Aspiration in the Treatment of Anechoic Fetal Ovarian Cysts to Prevent Ovarian Torsion</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00245869</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Contrast-Enhanced Ultrasound and Neoadjuvant Chemotherapy of Breast Cancer: Relationship Between Early Vascular Changes of the Tumor and Late Tumoral Response</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00243698</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Pilot Study Evaluation of the Efficacy of SonoVue to Detect and Characterise Breast Lesions</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00243633</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Characterization of Focal Liver Lesions by Real-Time Contrast-Enhanced Ultrasound Imaging (CEUS)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -684,36 +709,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00497614</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>18F-FDG Positron Emission Tomography to Study the Response to Adalimumab in Rheumatoid Arthritis. A Monocentric Pilot Study</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>PETRA</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -732,36 +762,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00507403</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Effect of Methotrexate on the Relation Dose-effect of Infliximab in Ankylosing Spondylitis</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>SPAXIM</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -780,32 +815,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01942239</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Real-time Continuous Glucose Monitoring Reduces Duration of Hypoglycemia Episodes in Very Low Birth Weight Neonates</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -824,36 +864,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01014026</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Human Papillomavirus DNA Testing Using Self-collected Samples for Cervical Cancer Screening: an Alternative Strategy for Unscreened Women?</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>APACHE-1</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -872,32 +917,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00593528</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Randomized Study With Medico-economic Evaluation Comparing the Use of PTFE Covered Stents vs Naked Stent in the TIPS (Transjugular Intra-hepatic Porto-systemic Shunt)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -916,32 +966,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT00489697</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Medical and Economical Evaluation of Contrast-enhanced Ultrasound Imaging for the Early Estimate of Bevacizumab Effect on Colorectal Cancer Liver Metastases</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -960,32 +1015,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT00308893</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Brain Derived Neurotrophic Factor (BDNF) Gene Polymorphism and Response to Antidepressants Treatment in Major Depression</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -1004,36 +1064,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01350882</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Phase III Study of Impact of Treatment With Rituximab on the Progression of Humoral Acute Rejection After Renal Transplantation</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>RITUX-ERAH</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1052,36 +1117,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02304900</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Effect of the Color of the Intra-eye Implant in the Cataract Surgery on the Sleep</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>IOL et sommeil</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1100,36 +1170,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01325259</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Molecular Imaging of Cerebral Amyloid Plaques Using PET With Fluoro Tracker for Early Diagnosis of Alzheimer's Disease</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>FAIR-AD</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1148,36 +1223,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01382160</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Serum Concentration of Adalimumab (Humira) as a Predictive Factor of Clinical Outcomes in Rheumatoid Arthritis (AFORA)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>AFORA</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1196,36 +1276,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01737606</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Ultrasonic Explorations of Cerebral Tissue Motions - Influence of Aging</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>COSTUM</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1244,32 +1329,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02574884</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>VINTAGE VHC</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1288,36 +1378,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01427036</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Impact Sur le Saignement Per et Post opératoire de 2 stratégies d'ostéosynthèse Des Fractures du Massif trochantérien du Sujet &gt; 65 Ans : Essai randomisé Comparant le système MISS et le système PHS</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>MISSvsPHS</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1336,36 +1431,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT00843817</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>RhDNase Effect on Biodistribution of PMN Serine Proteases in Cystic Fibrosis Sputum</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>BioDNase</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1384,36 +1484,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT00841295</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Effects of Parenteral L-carnitine Supplementation in Premature Neonates</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>CarniPrema</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1432,36 +1537,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT00512434</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Injection of Concentrated Autologous Bone-marrow (IMOCA) and Bone Union of Open Tibial Shaft Fracture: Randomized Study to Assess Efficiency of IMOCA in Addition to Standard of Care.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>IMOCA</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1480,36 +1590,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01770548</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Autism and Glutamatergic Synapse : Research of Genetic Mutations and Identification of Clinical and Neurophysiological Markers.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>NMDA-Autism</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -1528,36 +1643,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02570620</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Apport de l'échographie du Col Dans l'évaluation du Délai Induction Accouchement (DIA) Chez Des Patientes à Score de Bishop défavorable après déclenchement Par Dinoprostone Intravaginal</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>ECOLDIA</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1576,36 +1696,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02103374</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Evaluation of Benefit of Nebulized Bronchodilators at Home in Severe Chronic Obstructive Pulmonary Disease and Very Severe Steady State</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Nebuadom</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1624,36 +1749,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02026622</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Comparative Study of Physiological and Cerebrovascular Reactivity in Depression, at the Three Phases of Emotion</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>EMPHILINE</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1672,36 +1802,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT01895764</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Effect of the Combination of Methotrexate and Adalimumab on Reduction of Immunization in Ankylosing Spondylitis (COMARIS)</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>COMARIS</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1720,36 +1855,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02302534</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Pilot Study of Functional and Morphometric Brain Abnormalities Related to Adolescent Idiopathic Scoliosis (MOR-FO-SIA)</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>MOR-FO-SIA</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1768,36 +1908,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01958814</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Controlled Randomized Double-blind Study Comparing Salbutamol and Placebo Via Aerosol in Chronic Obstructive Respiratory Insufficiency in Exacerbartion Treated With Noninvasive Ventilation</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>BANNISTER</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1816,36 +1961,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01732991</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Assessing the Impact of the Prostatic Photo-vaporization (PVP) With Greenlight Laser Using Prostatic MRI and Contrast-enhanced Ultrasound</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>PROPIL</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1864,36 +2014,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02367001</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Randomized Trial Evaluating the Effectiveness of a "Targeted Communication" With the General Practitioner Involvement in Cancer Screening Invitation Letters</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>GPs</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1912,36 +2067,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02061254</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Transient Elastography DEdicated to Cosmetology And Dermatology (TEDECAD)</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>TEDECAD</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1960,36 +2120,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02567058</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Biomechanical and Ultrasonic Assessment of the Achilles Tendon in Vivo (MEDUSAA)</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>MEDUSAA</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2008,36 +2173,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT01729468</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Prevention of Pre-eclampsia and SGA by Low-Dose Aspirin in Nulliparous Women With Abnormal First-trimester Uterine Artery Dopplers</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>PERASTUN</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2056,32 +2226,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02302573</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Placenta Accreta : Contrast-enhanced Ultrasound Analysis in High Risk Population</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2100,36 +2275,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02255084</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Attitude of Unscreened Women Face to Different Strategies to Participate in Cervical Cancer Screening by Vaginal Self-sampling : Home-mailed or Invitation to Remove to Their General Practitioner</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>APACHE-3</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2148,36 +2328,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02050269</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Measuring the Plasma Clearance of Iohexol to Estimate Glomerular Filtration Rate in Intensive Care Unit Patients: Preliminary Feasibility Study</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>IoxRea</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2196,36 +2381,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT01960283</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Randomized Clinical Trial Evaluating the Efficacy of Methotrexate in Addition to Anti-H1 Versus Placebo and Anti-H1 in the Treatment of Severe Chronic Idiopathic Urticaria</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>MUCIS</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2244,36 +2434,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT00645606</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Single-agent Rituximab as Maintenance Treatment Versus Observation After Combined Induction Immunochemotherapy With Fludarabine, Cyclophosphamide and Rituximab in Patients Older Than 65 Years With Previously Untreated Chronic Lymphocytic Leukemia: a Phase III Trial of FILO</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>LLC2007SA</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2292,36 +2487,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02789839</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Analyses of Bone Marrow and Blood Samples From Healthy Volunteers: Focus on the redOx Metabolism - HEALTHOX</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>HEALTHOX</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2340,36 +2540,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT01816009</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Multicentric Study, of Non Inferiority, Randomized, Opened, to Evaluate the Two Durations Effectiveness of Antibiotherapy (6 Weeks Versus 12 Weeks) in the Treatment of Osteo-articular Prostheses Infections, With Prosthetic Change (in 1 Time or 2 Long Times) or Not (Articular Washing)</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>DATIPO</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2388,36 +2593,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT01388413</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>A Randomized, Multicenter, Parallel Group Study to Evaluate Safety and Efficacy of a Weekly Oral Cyclic Antibiotic Programme in the Prevention of Urinary Tract Infection on Neurological Bladder</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>PACHIU</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2436,36 +2646,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02263651</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Dead Space Closure With Quilting Suture Versus Conventional Closure With Drainage in Prevention of Seroma Formation After Mastectomy for Breast Cancer : a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>QUISERMAS</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2484,36 +2699,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02573974</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Study of Alterations in Skeletal Muscle Energy Metabolism in Undernourished Patients With Gastrointestinal Cancer</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>METERMUCADIG</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2532,36 +2752,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02302547</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Randomized Clinical Trial to Evaluate the Interest of a Down-scaled Treatment Strategy Using Dual Therapy (Nucleoside Analogs) in HIV Infected Patients Already Being Treated Using Triple Therapy, Who Present With a Successful Virological Control and for Which the HIV Reservoir is Low to Moderate</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>TRULIGHT</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2580,32 +2805,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02907060</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Propess® Versus Double Balloon for Cervical Ripening of Prolonged Pregnancies: a Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2624,36 +2854,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02278848</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Multimodal Investigation in the Diagnosis and Treatment of Chronic Adult Hydrocephalus</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Multimod'HCA</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2672,36 +2907,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT02812979</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Evaluation of the Effectiveness of the Nebulization Bronchodilators Under High Nasal Flow Humidified Compared to a Usual Method</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>AirvoNEB</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2720,36 +2960,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT01628432</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Effect of Total Salpingectomy During Conservative Hysterectomy for Benign Disease on Ovarian Function: Non Inferiority Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>SALPINGOVA</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2768,36 +3013,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT02185222</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Effect of Vitamin D on Cognitive Decline of Patients With Memory Complaint</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>D-COG</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2816,36 +3066,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02062099</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>PET Imaging of the Translocator Proteine Ligands (TSPO) With [18 F] DPA-714 Biomarker of NeuroInflammation in Cognitive Decline (NIDECO)</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>NIDeCo</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2864,36 +3119,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT01962311</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Evaluation of Metabolomic Analysis in Early Diagnosis of ALS</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>METABALS</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2912,36 +3172,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT01983436</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Impact of Manual Lymphatic Drainage on Postoperative Edema of the Face and the Neck After Orthognathic Surgery.Open-label Multicenter Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>DLMOF</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2960,36 +3225,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03022968</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Tau Brain Imaging in Typical and Atypical Alzheimer's Disease (AD)</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>TEPTAU</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3008,36 +3278,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02509468</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Treatment of Superficial Voluminous Complicated Slow-flow Vascular Malformations With Sirolimus: a Phase 2 Trial in Children Observational-phase Designed</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>PERFORMUS</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3056,36 +3331,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT01364857</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>French National Prospective Cohort of Children With Port Wine Stain on a Limb = "Cohorte Nationale d'Enfants Avec Angiome Plan de Membre inférieur"</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>CONAPE</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -3104,36 +3384,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT03084133</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Impact of EDUcation Strategy on Patients With COLorectal CANCER or Advanced Adenoma in the Detection of Colorectal Cancer of Their First-degree Relatives - Randomized, Multicenter Cluster Test</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>EDUCANCOLAGE</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3152,36 +3437,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02719951</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Glutaminergic Transmission in Autism : Molecular Imaging Exploration</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>TANGAU</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3200,36 +3490,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02917473</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Written Advice to Improve Compliance With Early Detection of Melanoma in First-degree Relatives: a Multicenter, Cluster-randomized Intervention Trial to Evaluate the Impact of Specific Incentives and Study Psychological Determinants of Early Melanoma Detection Behavior in First-degree Relatives</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>FADEMELA</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3248,36 +3543,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02304354</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Relationship Between T LYmphocytes Depletion and Clinical Response to RITUXimab in Rheumatoid Arthritis (LYRITUX)</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>LYRITUX</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3296,36 +3596,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02670226</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Metabolomics and Transcriptomics Approaches to Identify Muscular Biomarkers in Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>METABOMU</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3344,36 +3649,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02377206</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Neuroinflammation and Cognitive Decline in Alzheimer Disease (AD) : Pilot Study of Translocator Proteins Ligand PET Imaging With [18F]DPA-714</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>NICAD</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3392,36 +3702,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02931825</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Identification of High Risk People for Colorectal Cancer in Indre-et-Loire (France) and Evaluation of a Specific Surveillance System : a Randomized Trial Assessing the Efficacy of a Letter Encouraging People to Perform Colonoscopy Screening</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>ISIRECC</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3440,36 +3755,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT03027479</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Study of Differences in Skeletal Muscle Energy Metabolism Alterations in Women With Weight Loss and Ovarian and/or Endometrial Cancer Based on the Body Mass Index</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>METERMUS-IMC</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3488,36 +3808,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03000920</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Multicenter Randomized Controlled Trial Evaluating the Effectiveness and Cost-effectiveness of the Use of Short Message Service (SMS) in the Screening Invitation Strategy for Breast Cancer.</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>USIMaPI</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3536,36 +3861,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT01962753</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Depression in the Elderly and Cerebral Amyloid Plaques: Characterization by [18F] AV-45 Affectives Symptoms and Amyloïd Plaques (ASAP)</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>ASAP</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3584,36 +3914,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT03024229</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>The Importance of Metabolomics in Assessing the Quality of Kidney Transplants Retained on a LifePort® Perfusion Machine Before Renal Transplantation</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>RENALIFE</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3632,36 +3967,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT02517489</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Effects of Low-dose Corticosteroids on Survival of Severe Community-acquired Pneumonia</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>CAPE_COD</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
       <c r="J68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3680,36 +4020,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT03927729</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Use of Methoxyflurane (Penthrox) as an Antalgic in Hospital Trauma</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>UMATH</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3728,36 +4073,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT04359875</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Does a Systematic Phone-call by a Medical Student/General Practitioner Team in Patients Suffering From a Chronic Condition During the COVID-19 Containment Period Impact One-month Hospitalization's Rate in France? A Cluster Randomized Trial</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>COVIQuest</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3776,36 +4126,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT02990286</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Evaluation of Efficacy and Safety of Rituximab in Association With Mycophenolate Mofetil Versus Mycophenolate Mofetil Alone in Patients With Interstitial Lung Diseases (ILD) Non-responders to a First-line Immunosuppressive Treatment</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>EvER-ILD</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
       <c r="J71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3824,36 +4179,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT03002142</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Auditory Rehabilitation With Hearing Aids and Cognition in Alzheimer Patients</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>RACO-MA</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3872,36 +4232,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02809222</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Kinetics of the Plasmatic Concentration of L-Ascorbic Acid in Patient With Myelodysplastic Syndromes and Control Subjects</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>PLASMYC</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3920,36 +4285,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT02900053</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Post-traumatic Stress Disorder Treatment Using Transcranial Direct Current Stimulation (tDCS) Enhancement of Trauma-focused Therapy : a Two-arm Randomized Controlled Multicentric Study - T-TREAt</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>T-TREAt</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3968,36 +4338,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02455284</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>In Vivo and ex Vivo Validation of MR Tractography of Brain White Matter Tracts - FIBRATLAS II-III</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>FIBRATLAS</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4016,32 +4391,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT04358939</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Evaluation of Prone Position in Conscious Patients on Nasal High-flow Oxygen Therapy for COVID-19 Disease Induced Acute Respiratory Distress Syndrome</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4060,32 +4440,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT04199143</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Cerebrovascular Reactivity to Nitrous Oxyde in Resistant Depression: the PROTOBRAIN Pilote Study</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4104,36 +4489,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03856684</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Randomized Trial Evaluating Women's Behavior Not Participating in Cervical Cancer Screening Facing Three Strategies for Optimizing Home Sending by Post of Vaginal Self-sampling Kit</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>APACHE-4</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4152,36 +4542,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT04879277</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Etude de l'INflammation systémique de Bas GRade Chez Les Patients Adultes Atteints de PHénylcétonurie</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>INGRAPH</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4200,36 +4595,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT03118193</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Biomarkers of Antidepressant Resistance - BIORESA</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>BIORESA</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4248,36 +4648,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT03149640</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Double-blinded Multicenter Randomized Controlled Trial Comparing Inhaled Amikacin Versus Placebo to Prevent Ventilator Associated Pneumonia</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>AMIKINHAL</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4296,36 +4701,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03458975</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Targeted Delivery of Chemotherapy With Ultrasound and Microbubbles</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>SONCHIMIO</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -4344,36 +4754,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT02229123</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Levetiracetam Efficacy and Safety as First-line Treatment of Neonatal Seizures Occuring in Hypoxic-ischemic Encephalopathy Context</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>LEVNEONAT-1</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4392,36 +4807,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT03924180</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Glytactin EfficiEncy in Non or Insufficiently Treated Adult PHENylketonuria Patients</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>GLEEPHEN</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -4440,36 +4860,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT04725786</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Pertinence Clinique de l'échographie Thoracique Pour le Diagnostic précoce de la Pneumopathie Interstitielle Diffuse de la sclérodermie systémique - Etude Pilote</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>PRECOSS</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4488,36 +4913,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03970499</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Evaluation de l'intérêt de l'élastographie Ultrasonore et du Doppler Ultrasensible peropératoires Dans la Prise en Charge Chirurgicale Des Tumeurs cérébrales</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>ELASTOGLI</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4536,36 +4966,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT04570202</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Symptoms of Depression, Stress and Burnout, and Long-term Psychological Impact in Health Care Professionals Exposed to the Novel Coronavirus Disease 2019 Outbreak (HARD-COVID-19 - Health cAre woRkers exposeD to covID-19)</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>HARD-COVID19</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4584,36 +5019,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT03680963</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Early Versus Differed Arterial Catheterization in Critically Ill Patients With Acute Circulatory Failure: A Multicentre, Open-label, Pragmatic, Randomised, Non-inferiority Controlled Trial (EVERDAC Trial)</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>EVERDAC</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4632,36 +5072,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT04953286</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Tear Fluid and Ocular Surface Metabolomics and Lipidomics in Lateral Amyotrophic Sclerosis: a Prospective Comparative Study</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>LARMOMIQUE</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4680,36 +5125,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT06119971</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Effect of Acupressure on the "Yin-Tang" and "Shen-Men" Points on Pre and Postoperative Anxiety in Elective Caesarean Section: a Prospective, Single-blind, Randomised, Controlled Trial</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>ACUCESAR</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>

--- a/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -67,7 +67,7 @@
     <t>+3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT00222066</t>

--- a/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -67,160 +67,166 @@
     <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
+    <t>NCT00243633</t>
+  </si>
+  <si>
+    <t>NCT00243698</t>
+  </si>
+  <si>
+    <t>NCT00245869</t>
+  </si>
+  <si>
     <t>NCT00222066</t>
   </si>
   <si>
-    <t>NCT00245869</t>
-  </si>
-  <si>
-    <t>NCT00243698</t>
-  </si>
-  <si>
-    <t>NCT00243633</t>
-  </si>
-  <si>
     <t>NCT00497614</t>
   </si>
   <si>
+    <t>NCT01942239</t>
+  </si>
+  <si>
     <t>NCT00507403</t>
   </si>
   <si>
-    <t>NCT01942239</t>
+    <t>NCT00593528</t>
   </si>
   <si>
     <t>NCT01014026</t>
   </si>
   <si>
-    <t>NCT00593528</t>
+    <t>NCT02304900</t>
+  </si>
+  <si>
+    <t>NCT00308893</t>
   </si>
   <si>
     <t>NCT00489697</t>
   </si>
   <si>
-    <t>NCT00308893</t>
-  </si>
-  <si>
     <t>NCT01350882</t>
   </si>
   <si>
-    <t>NCT02304900</t>
+    <t>NCT01427036</t>
+  </si>
+  <si>
+    <t>NCT00843817</t>
+  </si>
+  <si>
+    <t>NCT00841295</t>
+  </si>
+  <si>
+    <t>NCT02574884</t>
+  </si>
+  <si>
+    <t>NCT01737606</t>
+  </si>
+  <si>
+    <t>NCT00512434</t>
+  </si>
+  <si>
+    <t>NCT01382160</t>
   </si>
   <si>
     <t>NCT01325259</t>
   </si>
   <si>
-    <t>NCT01382160</t>
-  </si>
-  <si>
-    <t>NCT01737606</t>
-  </si>
-  <si>
-    <t>NCT02574884</t>
-  </si>
-  <si>
-    <t>NCT01427036</t>
-  </si>
-  <si>
-    <t>NCT00843817</t>
-  </si>
-  <si>
-    <t>NCT00841295</t>
-  </si>
-  <si>
-    <t>NCT00512434</t>
+    <t>NCT02570620</t>
   </si>
   <si>
     <t>NCT01770548</t>
   </si>
   <si>
-    <t>NCT02570620</t>
+    <t>NCT02302534</t>
+  </si>
+  <si>
+    <t>NCT01732991</t>
+  </si>
+  <si>
+    <t>NCT02567058</t>
+  </si>
+  <si>
+    <t>NCT01895764</t>
+  </si>
+  <si>
+    <t>NCT01958814</t>
+  </si>
+  <si>
+    <t>NCT02367001</t>
+  </si>
+  <si>
+    <t>NCT02061254</t>
+  </si>
+  <si>
+    <t>NCT02026622</t>
   </si>
   <si>
     <t>NCT02103374</t>
   </si>
   <si>
-    <t>NCT02026622</t>
-  </si>
-  <si>
-    <t>NCT01895764</t>
-  </si>
-  <si>
-    <t>NCT02302534</t>
-  </si>
-  <si>
-    <t>NCT01958814</t>
-  </si>
-  <si>
-    <t>NCT01732991</t>
-  </si>
-  <si>
-    <t>NCT02367001</t>
-  </si>
-  <si>
-    <t>NCT02061254</t>
-  </si>
-  <si>
-    <t>NCT02567058</t>
+    <t>NCT02255084</t>
+  </si>
+  <si>
+    <t>NCT01960283</t>
   </si>
   <si>
     <t>NCT01729468</t>
   </si>
   <si>
+    <t>NCT02050269</t>
+  </si>
+  <si>
     <t>NCT02302573</t>
   </si>
   <si>
-    <t>NCT02255084</t>
-  </si>
-  <si>
-    <t>NCT02050269</t>
-  </si>
-  <si>
-    <t>NCT01960283</t>
+    <t>NCT01388413</t>
   </si>
   <si>
     <t>NCT00645606</t>
   </si>
   <si>
+    <t>NCT01816009</t>
+  </si>
+  <si>
     <t>NCT02789839</t>
   </si>
   <si>
-    <t>NCT01816009</t>
-  </si>
-  <si>
-    <t>NCT01388413</t>
+    <t>NCT01962311</t>
+  </si>
+  <si>
+    <t>NCT01983436</t>
+  </si>
+  <si>
+    <t>NCT01628432</t>
+  </si>
+  <si>
+    <t>NCT02062099</t>
+  </si>
+  <si>
+    <t>NCT02302547</t>
   </si>
   <si>
     <t>NCT02263651</t>
   </si>
   <si>
+    <t>NCT02812979</t>
+  </si>
+  <si>
     <t>NCT02573974</t>
   </si>
   <si>
-    <t>NCT02302547</t>
-  </si>
-  <si>
     <t>NCT02907060</t>
   </si>
   <si>
     <t>NCT02278848</t>
   </si>
   <si>
-    <t>NCT02812979</t>
-  </si>
-  <si>
-    <t>NCT01628432</t>
-  </si>
-  <si>
     <t>NCT02185222</t>
   </si>
   <si>
-    <t>NCT02062099</t>
-  </si>
-  <si>
-    <t>NCT01962311</t>
-  </si>
-  <si>
-    <t>NCT01983436</t>
+    <t>NCT01364857</t>
+  </si>
+  <si>
+    <t>NCT02377206</t>
   </si>
   <si>
     <t>NCT03022968</t>
@@ -229,94 +235,94 @@
     <t>NCT02509468</t>
   </si>
   <si>
-    <t>NCT01364857</t>
+    <t>NCT03027479</t>
+  </si>
+  <si>
+    <t>NCT02719951</t>
   </si>
   <si>
     <t>NCT03084133</t>
   </si>
   <si>
-    <t>NCT02719951</t>
+    <t>NCT02304354</t>
+  </si>
+  <si>
+    <t>NCT02670226</t>
+  </si>
+  <si>
+    <t>NCT02931825</t>
+  </si>
+  <si>
+    <t>NCT03000920</t>
   </si>
   <si>
     <t>NCT02917473</t>
   </si>
   <si>
-    <t>NCT02304354</t>
-  </si>
-  <si>
-    <t>NCT02670226</t>
-  </si>
-  <si>
-    <t>NCT02377206</t>
-  </si>
-  <si>
-    <t>NCT02931825</t>
-  </si>
-  <si>
-    <t>NCT03027479</t>
-  </si>
-  <si>
-    <t>NCT03000920</t>
+    <t>NCT04359875</t>
+  </si>
+  <si>
+    <t>NCT03002142</t>
   </si>
   <si>
     <t>NCT01962753</t>
   </si>
   <si>
+    <t>NCT02990286</t>
+  </si>
+  <si>
+    <t>NCT02517489</t>
+  </si>
+  <si>
     <t>NCT03024229</t>
   </si>
   <si>
-    <t>NCT02517489</t>
-  </si>
-  <si>
     <t>NCT03927729</t>
   </si>
   <si>
-    <t>NCT04359875</t>
-  </si>
-  <si>
-    <t>NCT02990286</t>
-  </si>
-  <si>
-    <t>NCT03002142</t>
-  </si>
-  <si>
     <t>NCT02809222</t>
   </si>
   <si>
+    <t>NCT04879277</t>
+  </si>
+  <si>
+    <t>NCT03118193</t>
+  </si>
+  <si>
+    <t>NCT02455284</t>
+  </si>
+  <si>
+    <t>NCT04199143</t>
+  </si>
+  <si>
+    <t>NCT03856684</t>
+  </si>
+  <si>
+    <t>NCT04358939</t>
+  </si>
+  <si>
+    <t>NCT03149640</t>
+  </si>
+  <si>
     <t>NCT02900053</t>
   </si>
   <si>
-    <t>NCT02455284</t>
-  </si>
-  <si>
-    <t>NCT04358939</t>
-  </si>
-  <si>
-    <t>NCT04199143</t>
-  </si>
-  <si>
-    <t>NCT03856684</t>
-  </si>
-  <si>
-    <t>NCT04879277</t>
-  </si>
-  <si>
-    <t>NCT03118193</t>
-  </si>
-  <si>
-    <t>NCT03149640</t>
+    <t>NCT03924180</t>
+  </si>
+  <si>
+    <t>NCT04725786</t>
+  </si>
+  <si>
+    <t>NCT02229123</t>
   </si>
   <si>
     <t>NCT03458975</t>
   </si>
   <si>
-    <t>NCT02229123</t>
-  </si>
-  <si>
-    <t>NCT03924180</t>
-  </si>
-  <si>
-    <t>NCT04725786</t>
+    <t>NCT06119971</t>
+  </si>
+  <si>
+    <t>NCT04953286</t>
   </si>
   <si>
     <t>NCT03970499</t>
@@ -328,12 +334,6 @@
     <t>NCT03680963</t>
   </si>
   <si>
-    <t>NCT04953286</t>
-  </si>
-  <si>
-    <t>NCT06119971</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
@@ -382,157 +382,163 @@
     <t>2023</t>
   </si>
   <si>
+    <t>Characterization of Focal Liver Lesions by Real-Time Contrast-Enhanced Ultrasound Imaging (CEUS)</t>
+  </si>
+  <si>
+    <t>A Pilot Study Evaluation of the Efficacy of SonoVue to Detect and Characterise Breast Lesions</t>
+  </si>
+  <si>
+    <t>Contrast-Enhanced Ultrasound and Neoadjuvant Chemotherapy of Breast Cancer: Relationship Between Early Vascular Changes of the Tumor and Late Tumoral Response</t>
+  </si>
+  <si>
     <t>Comparison Between Abstention and Intrauterine Aspiration in the Treatment of Anechoic Fetal Ovarian Cysts to Prevent Ovarian Torsion</t>
   </si>
   <si>
-    <t>Contrast-Enhanced Ultrasound and Neoadjuvant Chemotherapy of Breast Cancer: Relationship Between Early Vascular Changes of the Tumor and Late Tumoral Response</t>
-  </si>
-  <si>
-    <t>A Pilot Study Evaluation of the Efficacy of SonoVue to Detect and Characterise Breast Lesions</t>
-  </si>
-  <si>
-    <t>Characterization of Focal Liver Lesions by Real-Time Contrast-Enhanced Ultrasound Imaging (CEUS)</t>
-  </si>
-  <si>
     <t>18F-FDG Positron Emission Tomography to Study the Response to Adalimumab in Rheumatoid Arthritis. A Monocentric Pilot Study</t>
   </si>
   <si>
+    <t>Real-time Continuous Glucose Monitoring Reduces Duration of Hypoglycemia Episodes in Very Low Birth Weight Neonates</t>
+  </si>
+  <si>
     <t>Effect of Methotrexate on the Relation Dose-effect of Infliximab in Ankylosing Spondylitis</t>
   </si>
   <si>
-    <t>Real-time Continuous Glucose Monitoring Reduces Duration of Hypoglycemia Episodes in Very Low Birth Weight Neonates</t>
+    <t>Randomized Study With Medico-economic Evaluation Comparing the Use of PTFE Covered Stents vs Naked Stent in the TIPS (Transjugular Intra-hepatic Porto-systemic Shunt)</t>
   </si>
   <si>
     <t>Human Papillomavirus DNA Testing Using Self-collected Samples for Cervical Cancer Screening: an Alternative Strategy for Unscreened Women?</t>
   </si>
   <si>
-    <t>Randomized Study With Medico-economic Evaluation Comparing the Use of PTFE Covered Stents vs Naked Stent in the TIPS (Transjugular Intra-hepatic Porto-systemic Shunt)</t>
+    <t>Effect of the Color of the Intra-eye Implant in the Cataract Surgery on the Sleep</t>
+  </si>
+  <si>
+    <t>Brain Derived Neurotrophic Factor (BDNF) Gene Polymorphism and Response to Antidepressants Treatment in Major Depression</t>
   </si>
   <si>
     <t>Medical and Economical Evaluation of Contrast-enhanced Ultrasound Imaging for the Early Estimate of Bevacizumab Effect on Colorectal Cancer Liver Metastases</t>
   </si>
   <si>
-    <t>Brain Derived Neurotrophic Factor (BDNF) Gene Polymorphism and Response to Antidepressants Treatment in Major Depression</t>
-  </si>
-  <si>
     <t>Phase III Study of Impact of Treatment With Rituximab on the Progression of Humoral Acute Rejection After Renal Transplantation</t>
   </si>
   <si>
-    <t>Effect of the Color of the Intra-eye Implant in the Cataract Surgery on the Sleep</t>
+    <t>Impact Sur le Saignement Per et Post opératoire de 2 stratégies d'ostéosynthèse Des Fractures du Massif trochantérien du Sujet &gt; 65 Ans : Essai randomisé Comparant le système MISS et le système PHS</t>
+  </si>
+  <si>
+    <t>RhDNase Effect on Biodistribution of PMN Serine Proteases in Cystic Fibrosis Sputum</t>
+  </si>
+  <si>
+    <t>Effects of Parenteral L-carnitine Supplementation in Premature Neonates</t>
+  </si>
+  <si>
+    <t>Ultrasonic Explorations of Cerebral Tissue Motions - Influence of Aging</t>
+  </si>
+  <si>
+    <t>Injection of Concentrated Autologous Bone-marrow (IMOCA) and Bone Union of Open Tibial Shaft Fracture: Randomized Study to Assess Efficiency of IMOCA in Addition to Standard of Care.</t>
+  </si>
+  <si>
+    <t>Serum Concentration of Adalimumab (Humira) as a Predictive Factor of Clinical Outcomes in Rheumatoid Arthritis (AFORA)</t>
   </si>
   <si>
     <t>Molecular Imaging of Cerebral Amyloid Plaques Using PET With Fluoro Tracker for Early Diagnosis of Alzheimer's Disease</t>
   </si>
   <si>
-    <t>Serum Concentration of Adalimumab (Humira) as a Predictive Factor of Clinical Outcomes in Rheumatoid Arthritis (AFORA)</t>
-  </si>
-  <si>
-    <t>Ultrasonic Explorations of Cerebral Tissue Motions - Influence of Aging</t>
-  </si>
-  <si>
-    <t>Impact Sur le Saignement Per et Post opératoire de 2 stratégies d'ostéosynthèse Des Fractures du Massif trochantérien du Sujet &gt; 65 Ans : Essai randomisé Comparant le système MISS et le système PHS</t>
-  </si>
-  <si>
-    <t>RhDNase Effect on Biodistribution of PMN Serine Proteases in Cystic Fibrosis Sputum</t>
-  </si>
-  <si>
-    <t>Effects of Parenteral L-carnitine Supplementation in Premature Neonates</t>
-  </si>
-  <si>
-    <t>Injection of Concentrated Autologous Bone-marrow (IMOCA) and Bone Union of Open Tibial Shaft Fracture: Randomized Study to Assess Efficiency of IMOCA in Addition to Standard of Care.</t>
+    <t>Apport de l'échographie du Col Dans l'évaluation du Délai Induction Accouchement (DIA) Chez Des Patientes à Score de Bishop défavorable après déclenchement Par Dinoprostone Intravaginal</t>
   </si>
   <si>
     <t>Autism and Glutamatergic Synapse : Research of Genetic Mutations and Identification of Clinical and Neurophysiological Markers.</t>
   </si>
   <si>
-    <t>Apport de l'échographie du Col Dans l'évaluation du Délai Induction Accouchement (DIA) Chez Des Patientes à Score de Bishop défavorable après déclenchement Par Dinoprostone Intravaginal</t>
+    <t>Pilot Study of Functional and Morphometric Brain Abnormalities Related to Adolescent Idiopathic Scoliosis (MOR-FO-SIA)</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of the Prostatic Photo-vaporization (PVP) With Greenlight Laser Using Prostatic MRI and Contrast-enhanced Ultrasound</t>
+  </si>
+  <si>
+    <t>Biomechanical and Ultrasonic Assessment of the Achilles Tendon in Vivo (MEDUSAA)</t>
+  </si>
+  <si>
+    <t>Effect of the Combination of Methotrexate and Adalimumab on Reduction of Immunization in Ankylosing Spondylitis (COMARIS)</t>
+  </si>
+  <si>
+    <t>Controlled Randomized Double-blind Study Comparing Salbutamol and Placebo Via Aerosol in Chronic Obstructive Respiratory Insufficiency in Exacerbartion Treated With Noninvasive Ventilation</t>
+  </si>
+  <si>
+    <t>Randomized Trial Evaluating the Effectiveness of a "Targeted Communication" With the General Practitioner Involvement in Cancer Screening Invitation Letters</t>
+  </si>
+  <si>
+    <t>Transient Elastography DEdicated to Cosmetology And Dermatology (TEDECAD)</t>
+  </si>
+  <si>
+    <t>Comparative Study of Physiological and Cerebrovascular Reactivity in Depression, at the Three Phases of Emotion</t>
   </si>
   <si>
     <t>Evaluation of Benefit of Nebulized Bronchodilators at Home in Severe Chronic Obstructive Pulmonary Disease and Very Severe Steady State</t>
   </si>
   <si>
-    <t>Comparative Study of Physiological and Cerebrovascular Reactivity in Depression, at the Three Phases of Emotion</t>
-  </si>
-  <si>
-    <t>Effect of the Combination of Methotrexate and Adalimumab on Reduction of Immunization in Ankylosing Spondylitis (COMARIS)</t>
-  </si>
-  <si>
-    <t>Pilot Study of Functional and Morphometric Brain Abnormalities Related to Adolescent Idiopathic Scoliosis (MOR-FO-SIA)</t>
-  </si>
-  <si>
-    <t>Controlled Randomized Double-blind Study Comparing Salbutamol and Placebo Via Aerosol in Chronic Obstructive Respiratory Insufficiency in Exacerbartion Treated With Noninvasive Ventilation</t>
-  </si>
-  <si>
-    <t>Assessing the Impact of the Prostatic Photo-vaporization (PVP) With Greenlight Laser Using Prostatic MRI and Contrast-enhanced Ultrasound</t>
-  </si>
-  <si>
-    <t>Randomized Trial Evaluating the Effectiveness of a "Targeted Communication" With the General Practitioner Involvement in Cancer Screening Invitation Letters</t>
-  </si>
-  <si>
-    <t>Transient Elastography DEdicated to Cosmetology And Dermatology (TEDECAD)</t>
-  </si>
-  <si>
-    <t>Biomechanical and Ultrasonic Assessment of the Achilles Tendon in Vivo (MEDUSAA)</t>
+    <t>Attitude of Unscreened Women Face to Different Strategies to Participate in Cervical Cancer Screening by Vaginal Self-sampling : Home-mailed or Invitation to Remove to Their General Practitioner</t>
+  </si>
+  <si>
+    <t>Randomized Clinical Trial Evaluating the Efficacy of Methotrexate in Addition to Anti-H1 Versus Placebo and Anti-H1 in the Treatment of Severe Chronic Idiopathic Urticaria</t>
   </si>
   <si>
     <t>Prevention of Pre-eclampsia and SGA by Low-Dose Aspirin in Nulliparous Women With Abnormal First-trimester Uterine Artery Dopplers</t>
   </si>
   <si>
+    <t>Measuring the Plasma Clearance of Iohexol to Estimate Glomerular Filtration Rate in Intensive Care Unit Patients: Preliminary Feasibility Study</t>
+  </si>
+  <si>
     <t>Placenta Accreta : Contrast-enhanced Ultrasound Analysis in High Risk Population</t>
   </si>
   <si>
-    <t>Attitude of Unscreened Women Face to Different Strategies to Participate in Cervical Cancer Screening by Vaginal Self-sampling : Home-mailed or Invitation to Remove to Their General Practitioner</t>
-  </si>
-  <si>
-    <t>Measuring the Plasma Clearance of Iohexol to Estimate Glomerular Filtration Rate in Intensive Care Unit Patients: Preliminary Feasibility Study</t>
-  </si>
-  <si>
-    <t>Randomized Clinical Trial Evaluating the Efficacy of Methotrexate in Addition to Anti-H1 Versus Placebo and Anti-H1 in the Treatment of Severe Chronic Idiopathic Urticaria</t>
+    <t>A Randomized, Multicenter, Parallel Group Study to Evaluate Safety and Efficacy of a Weekly Oral Cyclic Antibiotic Programme in the Prevention of Urinary Tract Infection on Neurological Bladder</t>
   </si>
   <si>
     <t>Single-agent Rituximab as Maintenance Treatment Versus Observation After Combined Induction Immunochemotherapy With Fludarabine, Cyclophosphamide and Rituximab in Patients Older Than 65 Years With Previously Untreated Chronic Lymphocytic Leukemia: a Phase III Trial of FILO</t>
   </si>
   <si>
+    <t>Multicentric Study, of Non Inferiority, Randomized, Opened, to Evaluate the Two Durations Effectiveness of Antibiotherapy (6 Weeks Versus 12 Weeks) in the Treatment of Osteo-articular Prostheses Infections, With Prosthetic Change (in 1 Time or 2 Long Times) or Not (Articular Washing)</t>
+  </si>
+  <si>
     <t>Analyses of Bone Marrow and Blood Samples From Healthy Volunteers: Focus on the redOx Metabolism - HEALTHOX</t>
   </si>
   <si>
-    <t>Multicentric Study, of Non Inferiority, Randomized, Opened, to Evaluate the Two Durations Effectiveness of Antibiotherapy (6 Weeks Versus 12 Weeks) in the Treatment of Osteo-articular Prostheses Infections, With Prosthetic Change (in 1 Time or 2 Long Times) or Not (Articular Washing)</t>
-  </si>
-  <si>
-    <t>A Randomized, Multicenter, Parallel Group Study to Evaluate Safety and Efficacy of a Weekly Oral Cyclic Antibiotic Programme in the Prevention of Urinary Tract Infection on Neurological Bladder</t>
+    <t>Evaluation of Metabolomic Analysis in Early Diagnosis of ALS</t>
+  </si>
+  <si>
+    <t>Impact of Manual Lymphatic Drainage on Postoperative Edema of the Face and the Neck After Orthognathic Surgery.Open-label Multicenter Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Effect of Total Salpingectomy During Conservative Hysterectomy for Benign Disease on Ovarian Function: Non Inferiority Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>PET Imaging of the Translocator Proteine Ligands (TSPO) With [18 F] DPA-714 Biomarker of NeuroInflammation in Cognitive Decline (NIDECO)</t>
+  </si>
+  <si>
+    <t>Randomized Clinical Trial to Evaluate the Interest of a Down-scaled Treatment Strategy Using Dual Therapy (Nucleoside Analogs) in HIV Infected Patients Already Being Treated Using Triple Therapy, Who Present With a Successful Virological Control and for Which the HIV Reservoir is Low to Moderate</t>
   </si>
   <si>
     <t>Dead Space Closure With Quilting Suture Versus Conventional Closure With Drainage in Prevention of Seroma Formation After Mastectomy for Breast Cancer : a Randomized Controlled Trial</t>
   </si>
   <si>
+    <t>Evaluation of the Effectiveness of the Nebulization Bronchodilators Under High Nasal Flow Humidified Compared to a Usual Method</t>
+  </si>
+  <si>
     <t>Study of Alterations in Skeletal Muscle Energy Metabolism in Undernourished Patients With Gastrointestinal Cancer</t>
   </si>
   <si>
-    <t>Randomized Clinical Trial to Evaluate the Interest of a Down-scaled Treatment Strategy Using Dual Therapy (Nucleoside Analogs) in HIV Infected Patients Already Being Treated Using Triple Therapy, Who Present With a Successful Virological Control and for Which the HIV Reservoir is Low to Moderate</t>
-  </si>
-  <si>
     <t>Propess® Versus Double Balloon for Cervical Ripening of Prolonged Pregnancies: a Randomised Controlled Trial</t>
   </si>
   <si>
     <t>Multimodal Investigation in the Diagnosis and Treatment of Chronic Adult Hydrocephalus</t>
   </si>
   <si>
-    <t>Evaluation of the Effectiveness of the Nebulization Bronchodilators Under High Nasal Flow Humidified Compared to a Usual Method</t>
-  </si>
-  <si>
-    <t>Effect of Total Salpingectomy During Conservative Hysterectomy for Benign Disease on Ovarian Function: Non Inferiority Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>Effect of Vitamin D on Cognitive Decline of Patients With Memory Complaint</t>
   </si>
   <si>
-    <t>PET Imaging of the Translocator Proteine Ligands (TSPO) With [18 F] DPA-714 Biomarker of NeuroInflammation in Cognitive Decline (NIDECO)</t>
-  </si>
-  <si>
-    <t>Evaluation of Metabolomic Analysis in Early Diagnosis of ALS</t>
-  </si>
-  <si>
-    <t>Impact of Manual Lymphatic Drainage on Postoperative Edema of the Face and the Neck After Orthognathic Surgery.Open-label Multicenter Randomized Controlled Trial</t>
+    <t>French National Prospective Cohort of Children With Port Wine Stain on a Limb = "Cohorte Nationale d'Enfants Avec Angiome Plan de Membre inférieur"</t>
+  </si>
+  <si>
+    <t>Neuroinflammation and Cognitive Decline in Alzheimer Disease (AD) : Pilot Study of Translocator Proteins Ligand PET Imaging With [18F]DPA-714</t>
   </si>
   <si>
     <t>Tau Brain Imaging in Typical and Atypical Alzheimer's Disease (AD)</t>
@@ -541,94 +547,94 @@
     <t>Treatment of Superficial Voluminous Complicated Slow-flow Vascular Malformations With Sirolimus: a Phase 2 Trial in Children Observational-phase Designed</t>
   </si>
   <si>
-    <t>French National Prospective Cohort of Children With Port Wine Stain on a Limb = "Cohorte Nationale d'Enfants Avec Angiome Plan de Membre inférieur"</t>
+    <t>Study of Differences in Skeletal Muscle Energy Metabolism Alterations in Women With Weight Loss and Ovarian and/or Endometrial Cancer Based on the Body Mass Index</t>
+  </si>
+  <si>
+    <t>Glutaminergic Transmission in Autism : Molecular Imaging Exploration</t>
   </si>
   <si>
     <t>Impact of EDUcation Strategy on Patients With COLorectal CANCER or Advanced Adenoma in the Detection of Colorectal Cancer of Their First-degree Relatives - Randomized, Multicenter Cluster Test</t>
   </si>
   <si>
-    <t>Glutaminergic Transmission in Autism : Molecular Imaging Exploration</t>
+    <t>Relationship Between T LYmphocytes Depletion and Clinical Response to RITUXimab in Rheumatoid Arthritis (LYRITUX)</t>
+  </si>
+  <si>
+    <t>Metabolomics and Transcriptomics Approaches to Identify Muscular Biomarkers in Amyotrophic Lateral Sclerosis</t>
+  </si>
+  <si>
+    <t>Identification of High Risk People for Colorectal Cancer in Indre-et-Loire (France) and Evaluation of a Specific Surveillance System : a Randomized Trial Assessing the Efficacy of a Letter Encouraging People to Perform Colonoscopy Screening</t>
+  </si>
+  <si>
+    <t>Multicenter Randomized Controlled Trial Evaluating the Effectiveness and Cost-effectiveness of the Use of Short Message Service (SMS) in the Screening Invitation Strategy for Breast Cancer.</t>
   </si>
   <si>
     <t>Written Advice to Improve Compliance With Early Detection of Melanoma in First-degree Relatives: a Multicenter, Cluster-randomized Intervention Trial to Evaluate the Impact of Specific Incentives and Study Psychological Determinants of Early Melanoma Detection Behavior in First-degree Relatives</t>
   </si>
   <si>
-    <t>Relationship Between T LYmphocytes Depletion and Clinical Response to RITUXimab in Rheumatoid Arthritis (LYRITUX)</t>
-  </si>
-  <si>
-    <t>Metabolomics and Transcriptomics Approaches to Identify Muscular Biomarkers in Amyotrophic Lateral Sclerosis</t>
-  </si>
-  <si>
-    <t>Neuroinflammation and Cognitive Decline in Alzheimer Disease (AD) : Pilot Study of Translocator Proteins Ligand PET Imaging With [18F]DPA-714</t>
-  </si>
-  <si>
-    <t>Identification of High Risk People for Colorectal Cancer in Indre-et-Loire (France) and Evaluation of a Specific Surveillance System : a Randomized Trial Assessing the Efficacy of a Letter Encouraging People to Perform Colonoscopy Screening</t>
-  </si>
-  <si>
-    <t>Study of Differences in Skeletal Muscle Energy Metabolism Alterations in Women With Weight Loss and Ovarian and/or Endometrial Cancer Based on the Body Mass Index</t>
-  </si>
-  <si>
-    <t>Multicenter Randomized Controlled Trial Evaluating the Effectiveness and Cost-effectiveness of the Use of Short Message Service (SMS) in the Screening Invitation Strategy for Breast Cancer.</t>
+    <t>Does a Systematic Phone-call by a Medical Student/General Practitioner Team in Patients Suffering From a Chronic Condition During the COVID-19 Containment Period Impact One-month Hospitalization's Rate in France? A Cluster Randomized Trial</t>
+  </si>
+  <si>
+    <t>Auditory Rehabilitation With Hearing Aids and Cognition in Alzheimer Patients</t>
   </si>
   <si>
     <t>Depression in the Elderly and Cerebral Amyloid Plaques: Characterization by [18F] AV-45 Affectives Symptoms and Amyloïd Plaques (ASAP)</t>
   </si>
   <si>
+    <t>Evaluation of Efficacy and Safety of Rituximab in Association With Mycophenolate Mofetil Versus Mycophenolate Mofetil Alone in Patients With Interstitial Lung Diseases (ILD) Non-responders to a First-line Immunosuppressive Treatment</t>
+  </si>
+  <si>
+    <t>Effects of Low-dose Corticosteroids on Survival of Severe Community-acquired Pneumonia</t>
+  </si>
+  <si>
     <t>The Importance of Metabolomics in Assessing the Quality of Kidney Transplants Retained on a LifePort® Perfusion Machine Before Renal Transplantation</t>
   </si>
   <si>
-    <t>Effects of Low-dose Corticosteroids on Survival of Severe Community-acquired Pneumonia</t>
-  </si>
-  <si>
     <t>Use of Methoxyflurane (Penthrox) as an Antalgic in Hospital Trauma</t>
   </si>
   <si>
-    <t>Does a Systematic Phone-call by a Medical Student/General Practitioner Team in Patients Suffering From a Chronic Condition During the COVID-19 Containment Period Impact One-month Hospitalization's Rate in France? A Cluster Randomized Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of Efficacy and Safety of Rituximab in Association With Mycophenolate Mofetil Versus Mycophenolate Mofetil Alone in Patients With Interstitial Lung Diseases (ILD) Non-responders to a First-line Immunosuppressive Treatment</t>
-  </si>
-  <si>
-    <t>Auditory Rehabilitation With Hearing Aids and Cognition in Alzheimer Patients</t>
-  </si>
-  <si>
     <t>Kinetics of the Plasmatic Concentration of L-Ascorbic Acid in Patient With Myelodysplastic Syndromes and Control Subjects</t>
   </si>
   <si>
+    <t>Etude de l'INflammation systémique de Bas GRade Chez Les Patients Adultes Atteints de PHénylcétonurie</t>
+  </si>
+  <si>
+    <t>Biomarkers of Antidepressant Resistance - BIORESA</t>
+  </si>
+  <si>
+    <t>In Vivo and ex Vivo Validation of MR Tractography of Brain White Matter Tracts - FIBRATLAS II-III</t>
+  </si>
+  <si>
+    <t>Cerebrovascular Reactivity to Nitrous Oxyde in Resistant Depression: the PROTOBRAIN Pilote Study</t>
+  </si>
+  <si>
+    <t>Randomized Trial Evaluating Women's Behavior Not Participating in Cervical Cancer Screening Facing Three Strategies for Optimizing Home Sending by Post of Vaginal Self-sampling Kit</t>
+  </si>
+  <si>
+    <t>Evaluation of Prone Position in Conscious Patients on Nasal High-flow Oxygen Therapy for COVID-19 Disease Induced Acute Respiratory Distress Syndrome</t>
+  </si>
+  <si>
+    <t>Double-blinded Multicenter Randomized Controlled Trial Comparing Inhaled Amikacin Versus Placebo to Prevent Ventilator Associated Pneumonia</t>
+  </si>
+  <si>
     <t>Post-traumatic Stress Disorder Treatment Using Transcranial Direct Current Stimulation (tDCS) Enhancement of Trauma-focused Therapy : a Two-arm Randomized Controlled Multicentric Study - T-TREAt</t>
   </si>
   <si>
-    <t>In Vivo and ex Vivo Validation of MR Tractography of Brain White Matter Tracts - FIBRATLAS II-III</t>
-  </si>
-  <si>
-    <t>Evaluation of Prone Position in Conscious Patients on Nasal High-flow Oxygen Therapy for COVID-19 Disease Induced Acute Respiratory Distress Syndrome</t>
-  </si>
-  <si>
-    <t>Cerebrovascular Reactivity to Nitrous Oxyde in Resistant Depression: the PROTOBRAIN Pilote Study</t>
-  </si>
-  <si>
-    <t>Randomized Trial Evaluating Women's Behavior Not Participating in Cervical Cancer Screening Facing Three Strategies for Optimizing Home Sending by Post of Vaginal Self-sampling Kit</t>
-  </si>
-  <si>
-    <t>Etude de l'INflammation systémique de Bas GRade Chez Les Patients Adultes Atteints de PHénylcétonurie</t>
-  </si>
-  <si>
-    <t>Biomarkers of Antidepressant Resistance - BIORESA</t>
-  </si>
-  <si>
-    <t>Double-blinded Multicenter Randomized Controlled Trial Comparing Inhaled Amikacin Versus Placebo to Prevent Ventilator Associated Pneumonia</t>
+    <t>Glytactin EfficiEncy in Non or Insufficiently Treated Adult PHENylketonuria Patients</t>
+  </si>
+  <si>
+    <t>Pertinence Clinique de l'échographie Thoracique Pour le Diagnostic précoce de la Pneumopathie Interstitielle Diffuse de la sclérodermie systémique - Etude Pilote</t>
+  </si>
+  <si>
+    <t>Levetiracetam Efficacy and Safety as First-line Treatment of Neonatal Seizures Occuring in Hypoxic-ischemic Encephalopathy Context</t>
   </si>
   <si>
     <t>Targeted Delivery of Chemotherapy With Ultrasound and Microbubbles</t>
   </si>
   <si>
-    <t>Levetiracetam Efficacy and Safety as First-line Treatment of Neonatal Seizures Occuring in Hypoxic-ischemic Encephalopathy Context</t>
-  </si>
-  <si>
-    <t>Glytactin EfficiEncy in Non or Insufficiently Treated Adult PHENylketonuria Patients</t>
-  </si>
-  <si>
-    <t>Pertinence Clinique de l'échographie Thoracique Pour le Diagnostic précoce de la Pneumopathie Interstitielle Diffuse de la sclérodermie systémique - Etude Pilote</t>
+    <t>Effect of Acupressure on the "Yin-Tang" and "Shen-Men" Points on Pre and Postoperative Anxiety in Elective Caesarean Section: a Prospective, Single-blind, Randomised, Controlled Trial</t>
+  </si>
+  <si>
+    <t>Tear Fluid and Ocular Surface Metabolomics and Lipidomics in Lateral Amyotrophic Sclerosis: a Prospective Comparative Study</t>
   </si>
   <si>
     <t>Evaluation de l'intérêt de l'élastographie Ultrasonore et du Doppler Ultrasensible peropératoires Dans la Prise en Charge Chirurgicale Des Tumeurs cérébrales</t>
@@ -640,12 +646,6 @@
     <t>Early Versus Differed Arterial Catheterization in Critically Ill Patients With Acute Circulatory Failure: A Multicentre, Open-label, Pragmatic, Randomised, Non-inferiority Controlled Trial (EVERDAC Trial)</t>
   </si>
   <si>
-    <t>Tear Fluid and Ocular Surface Metabolomics and Lipidomics in Lateral Amyotrophic Sclerosis: a Prospective Comparative Study</t>
-  </si>
-  <si>
-    <t>Effect of Acupressure on the "Yin-Tang" and "Shen-Men" Points on Pre and Postoperative Anxiety in Elective Caesarean Section: a Prospective, Single-blind, Randomised, Controlled Trial</t>
-  </si>
-  <si>
     <t>PETRA</t>
   </si>
   <si>
@@ -655,121 +655,127 @@
     <t>APACHE-1</t>
   </si>
   <si>
+    <t>IOL et sommeil</t>
+  </si>
+  <si>
     <t>RITUX-ERAH</t>
   </si>
   <si>
-    <t>IOL et sommeil</t>
+    <t>MISSvsPHS</t>
+  </si>
+  <si>
+    <t>BioDNase</t>
+  </si>
+  <si>
+    <t>CarniPrema</t>
+  </si>
+  <si>
+    <t>VINTAGE VHC</t>
+  </si>
+  <si>
+    <t>COSTUM</t>
+  </si>
+  <si>
+    <t>IMOCA</t>
+  </si>
+  <si>
+    <t>AFORA</t>
   </si>
   <si>
     <t>FAIR-AD</t>
   </si>
   <si>
-    <t>AFORA</t>
-  </si>
-  <si>
-    <t>COSTUM</t>
-  </si>
-  <si>
-    <t>VINTAGE VHC</t>
-  </si>
-  <si>
-    <t>MISSvsPHS</t>
-  </si>
-  <si>
-    <t>BioDNase</t>
-  </si>
-  <si>
-    <t>CarniPrema</t>
-  </si>
-  <si>
-    <t>IMOCA</t>
+    <t>ECOLDIA</t>
   </si>
   <si>
     <t>NMDA-Autism</t>
   </si>
   <si>
-    <t>ECOLDIA</t>
+    <t>MOR-FO-SIA</t>
+  </si>
+  <si>
+    <t>PROPIL</t>
+  </si>
+  <si>
+    <t>MEDUSAA</t>
+  </si>
+  <si>
+    <t>COMARIS</t>
+  </si>
+  <si>
+    <t>BANNISTER</t>
+  </si>
+  <si>
+    <t>GPs</t>
+  </si>
+  <si>
+    <t>TEDECAD</t>
+  </si>
+  <si>
+    <t>EMPHILINE</t>
   </si>
   <si>
     <t>Nebuadom</t>
   </si>
   <si>
-    <t>EMPHILINE</t>
-  </si>
-  <si>
-    <t>COMARIS</t>
-  </si>
-  <si>
-    <t>MOR-FO-SIA</t>
-  </si>
-  <si>
-    <t>BANNISTER</t>
-  </si>
-  <si>
-    <t>PROPIL</t>
-  </si>
-  <si>
-    <t>GPs</t>
-  </si>
-  <si>
-    <t>TEDECAD</t>
-  </si>
-  <si>
-    <t>MEDUSAA</t>
+    <t>APACHE-3</t>
+  </si>
+  <si>
+    <t>MUCIS</t>
   </si>
   <si>
     <t>PERASTUN</t>
   </si>
   <si>
-    <t>APACHE-3</t>
-  </si>
-  <si>
     <t>IoxRea</t>
   </si>
   <si>
-    <t>MUCIS</t>
+    <t>PACHIU</t>
   </si>
   <si>
     <t>LLC2007SA</t>
   </si>
   <si>
+    <t>DATIPO</t>
+  </si>
+  <si>
     <t>HEALTHOX</t>
   </si>
   <si>
-    <t>DATIPO</t>
-  </si>
-  <si>
-    <t>PACHIU</t>
+    <t>METABALS</t>
+  </si>
+  <si>
+    <t>DLMOF</t>
+  </si>
+  <si>
+    <t>SALPINGOVA</t>
+  </si>
+  <si>
+    <t>NIDeCo</t>
+  </si>
+  <si>
+    <t>TRULIGHT</t>
   </si>
   <si>
     <t>QUISERMAS</t>
   </si>
   <si>
+    <t>AirvoNEB</t>
+  </si>
+  <si>
     <t>METERMUCADIG</t>
   </si>
   <si>
-    <t>TRULIGHT</t>
-  </si>
-  <si>
     <t>Multimod'HCA</t>
   </si>
   <si>
-    <t>AirvoNEB</t>
-  </si>
-  <si>
-    <t>SALPINGOVA</t>
-  </si>
-  <si>
     <t>D-COG</t>
   </si>
   <si>
-    <t>NIDeCo</t>
-  </si>
-  <si>
-    <t>METABALS</t>
-  </si>
-  <si>
-    <t>DLMOF</t>
+    <t>CONAPE</t>
+  </si>
+  <si>
+    <t>NICAD</t>
   </si>
   <si>
     <t>TEPTAU</t>
@@ -778,88 +784,88 @@
     <t>PERFORMUS</t>
   </si>
   <si>
-    <t>CONAPE</t>
+    <t>METERMUS-IMC</t>
+  </si>
+  <si>
+    <t>TANGAU</t>
   </si>
   <si>
     <t>EDUCANCOLAGE</t>
   </si>
   <si>
-    <t>TANGAU</t>
+    <t>LYRITUX</t>
+  </si>
+  <si>
+    <t>METABOMU</t>
+  </si>
+  <si>
+    <t>ISIRECC</t>
+  </si>
+  <si>
+    <t>USIMaPI</t>
   </si>
   <si>
     <t>FADEMELA</t>
   </si>
   <si>
-    <t>LYRITUX</t>
-  </si>
-  <si>
-    <t>METABOMU</t>
-  </si>
-  <si>
-    <t>NICAD</t>
-  </si>
-  <si>
-    <t>ISIRECC</t>
-  </si>
-  <si>
-    <t>METERMUS-IMC</t>
-  </si>
-  <si>
-    <t>USIMaPI</t>
+    <t>COVIQuest</t>
+  </si>
+  <si>
+    <t>RACO-MA</t>
   </si>
   <si>
     <t>ASAP</t>
   </si>
   <si>
+    <t>EvER-ILD</t>
+  </si>
+  <si>
+    <t>CAPE_COD</t>
+  </si>
+  <si>
     <t>RENALIFE</t>
   </si>
   <si>
-    <t>CAPE_COD</t>
-  </si>
-  <si>
     <t>UMATH</t>
   </si>
   <si>
-    <t>COVIQuest</t>
-  </si>
-  <si>
-    <t>EvER-ILD</t>
-  </si>
-  <si>
-    <t>RACO-MA</t>
-  </si>
-  <si>
     <t>PLASMYC</t>
   </si>
   <si>
+    <t>INGRAPH</t>
+  </si>
+  <si>
+    <t>BIORESA</t>
+  </si>
+  <si>
+    <t>FIBRATLAS</t>
+  </si>
+  <si>
+    <t>APACHE-4</t>
+  </si>
+  <si>
+    <t>AMIKINHAL</t>
+  </si>
+  <si>
     <t>T-TREAt</t>
   </si>
   <si>
-    <t>FIBRATLAS</t>
-  </si>
-  <si>
-    <t>APACHE-4</t>
-  </si>
-  <si>
-    <t>INGRAPH</t>
-  </si>
-  <si>
-    <t>BIORESA</t>
-  </si>
-  <si>
-    <t>AMIKINHAL</t>
+    <t>GLEEPHEN</t>
+  </si>
+  <si>
+    <t>PRECOSS</t>
+  </si>
+  <si>
+    <t>LEVNEONAT-1</t>
   </si>
   <si>
     <t>SONCHIMIO</t>
   </si>
   <si>
-    <t>LEVNEONAT-1</t>
-  </si>
-  <si>
-    <t>GLEEPHEN</t>
-  </si>
-  <si>
-    <t>PRECOSS</t>
+    <t>ACUCESAR</t>
+  </si>
+  <si>
+    <t>LARMOMIQUE</t>
   </si>
   <si>
     <t>ELASTOGLI</t>
@@ -871,12 +877,6 @@
     <t>EVERDAC</t>
   </si>
   <si>
-    <t>LARMOMIQUE</t>
-  </si>
-  <si>
-    <t>ACUCESAR</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
@@ -892,10 +892,10 @@
     <t>GENETIC</t>
   </si>
   <si>
+    <t>BIOLOGICAL</t>
+  </si>
+  <si>
     <t>RADIATION</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1331,15 +1331,15 @@
         <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1351,7 +1351,7 @@
         <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1399,10 +1399,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1413,19 +1413,16 @@
       <c r="G7" t="s">
         <v>127</v>
       </c>
-      <c r="H7" t="s">
-        <v>211</v>
-      </c>
       <c r="I7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1436,8 +1433,11 @@
       <c r="G8" t="s">
         <v>128</v>
       </c>
+      <c r="H8" t="s">
+        <v>211</v>
+      </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1456,11 +1456,8 @@
       <c r="G9" t="s">
         <v>129</v>
       </c>
-      <c r="H9" t="s">
-        <v>212</v>
-      </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1479,16 +1476,19 @@
       <c r="G10" t="s">
         <v>130</v>
       </c>
+      <c r="H10" t="s">
+        <v>212</v>
+      </c>
       <c r="I10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1499,8 +1499,11 @@
       <c r="G11" t="s">
         <v>131</v>
       </c>
+      <c r="H11" t="s">
+        <v>213</v>
+      </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1525,10 +1528,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1539,11 +1542,8 @@
       <c r="G13" t="s">
         <v>133</v>
       </c>
-      <c r="H13" t="s">
-        <v>213</v>
-      </c>
       <c r="I13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1566,7 +1566,7 @@
         <v>214</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1589,7 +1589,7 @@
         <v>215</v>
       </c>
       <c r="I15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1612,7 +1612,7 @@
         <v>216</v>
       </c>
       <c r="I16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1635,7 +1635,7 @@
         <v>217</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1678,7 +1678,7 @@
         <v>219</v>
       </c>
       <c r="I19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1701,7 +1701,7 @@
         <v>220</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1724,7 +1724,7 @@
         <v>221</v>
       </c>
       <c r="I21" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1747,15 +1747,15 @@
         <v>222</v>
       </c>
       <c r="I22" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1770,15 +1770,15 @@
         <v>223</v>
       </c>
       <c r="I23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1793,7 +1793,7 @@
         <v>224</v>
       </c>
       <c r="I24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1816,7 +1816,7 @@
         <v>225</v>
       </c>
       <c r="I25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1839,7 +1839,7 @@
         <v>226</v>
       </c>
       <c r="I26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1862,7 +1862,7 @@
         <v>227</v>
       </c>
       <c r="I27" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1885,7 +1885,7 @@
         <v>228</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1931,7 +1931,7 @@
         <v>230</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1954,7 +1954,7 @@
         <v>231</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1977,7 +1977,7 @@
         <v>232</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2000,15 +2000,15 @@
         <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -2023,7 +2023,7 @@
         <v>234</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2042,16 +2042,19 @@
       <c r="G35" t="s">
         <v>154</v>
       </c>
+      <c r="H35" t="s">
+        <v>235</v>
+      </c>
       <c r="I35" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -2063,10 +2066,10 @@
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2086,7 +2089,7 @@
         <v>156</v>
       </c>
       <c r="H37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I37" t="s">
         <v>288</v>
@@ -2108,19 +2111,16 @@
       <c r="G38" t="s">
         <v>157</v>
       </c>
-      <c r="H38" t="s">
-        <v>237</v>
-      </c>
       <c r="I38" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2135,15 +2135,15 @@
         <v>238</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -2158,7 +2158,7 @@
         <v>239</v>
       </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2186,10 +2186,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -2204,15 +2204,15 @@
         <v>241</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -2232,10 +2232,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -2273,7 +2273,7 @@
         <v>244</v>
       </c>
       <c r="I45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2292,16 +2292,19 @@
       <c r="G46" t="s">
         <v>165</v>
       </c>
+      <c r="H46" t="s">
+        <v>245</v>
+      </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -2313,18 +2316,18 @@
         <v>166</v>
       </c>
       <c r="H47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -2336,10 +2339,10 @@
         <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2359,18 +2362,18 @@
         <v>168</v>
       </c>
       <c r="H49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
@@ -2382,10 +2385,10 @@
         <v>169</v>
       </c>
       <c r="H50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I50" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2404,11 +2407,8 @@
       <c r="G51" t="s">
         <v>170</v>
       </c>
-      <c r="H51" t="s">
-        <v>249</v>
-      </c>
       <c r="I51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2431,7 +2431,7 @@
         <v>250</v>
       </c>
       <c r="I52" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2454,7 +2454,7 @@
         <v>251</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2477,15 +2477,15 @@
         <v>252</v>
       </c>
       <c r="I54" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
@@ -2500,7 +2500,7 @@
         <v>253</v>
       </c>
       <c r="I55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2523,15 +2523,15 @@
         <v>254</v>
       </c>
       <c r="I56" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
@@ -2546,7 +2546,7 @@
         <v>255</v>
       </c>
       <c r="I57" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2569,7 +2569,7 @@
         <v>256</v>
       </c>
       <c r="I58" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2592,7 +2592,7 @@
         <v>257</v>
       </c>
       <c r="I59" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2615,7 +2615,7 @@
         <v>258</v>
       </c>
       <c r="I60" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2638,7 +2638,7 @@
         <v>259</v>
       </c>
       <c r="I61" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2730,15 +2730,15 @@
         <v>263</v>
       </c>
       <c r="I65" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
@@ -2753,15 +2753,15 @@
         <v>264</v>
       </c>
       <c r="I66" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
@@ -2845,15 +2845,15 @@
         <v>268</v>
       </c>
       <c r="I70" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
@@ -2868,7 +2868,7 @@
         <v>269</v>
       </c>
       <c r="I71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2891,7 +2891,7 @@
         <v>270</v>
       </c>
       <c r="I72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2937,7 +2937,7 @@
         <v>272</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2960,15 +2960,15 @@
         <v>273</v>
       </c>
       <c r="I75" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
@@ -2979,8 +2979,11 @@
       <c r="G76" t="s">
         <v>195</v>
       </c>
+      <c r="H76" t="s">
+        <v>274</v>
+      </c>
       <c r="I76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3020,7 +3023,7 @@
         <v>197</v>
       </c>
       <c r="H78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I78" t="s">
         <v>294</v>
@@ -3028,10 +3031,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
@@ -3042,19 +3045,16 @@
       <c r="G79" t="s">
         <v>198</v>
       </c>
-      <c r="H79" t="s">
-        <v>275</v>
-      </c>
       <c r="I79" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
@@ -3069,15 +3069,15 @@
         <v>276</v>
       </c>
       <c r="I80" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
@@ -3092,7 +3092,7 @@
         <v>277</v>
       </c>
       <c r="I81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3115,15 +3115,15 @@
         <v>278</v>
       </c>
       <c r="I82" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
@@ -3138,15 +3138,15 @@
         <v>279</v>
       </c>
       <c r="I83" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
@@ -3161,7 +3161,7 @@
         <v>280</v>
       </c>
       <c r="I84" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3184,15 +3184,15 @@
         <v>281</v>
       </c>
       <c r="I85" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
@@ -3207,7 +3207,7 @@
         <v>282</v>
       </c>
       <c r="I86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3230,7 +3230,7 @@
         <v>283</v>
       </c>
       <c r="I87" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3276,15 +3276,15 @@
         <v>285</v>
       </c>
       <c r="I89" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
@@ -3299,7 +3299,7 @@
         <v>286</v>
       </c>
       <c r="I90" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage2/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="310">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT00243633</t>
@@ -73,102 +73,102 @@
     <t>NCT00243698</t>
   </si>
   <si>
+    <t>NCT00222066</t>
+  </si>
+  <si>
     <t>NCT00245869</t>
   </si>
   <si>
-    <t>NCT00222066</t>
-  </si>
-  <si>
     <t>NCT00497614</t>
   </si>
   <si>
+    <t>NCT00507403</t>
+  </si>
+  <si>
     <t>NCT01942239</t>
   </si>
   <si>
-    <t>NCT00507403</t>
+    <t>NCT01014026</t>
   </si>
   <si>
     <t>NCT00593528</t>
   </si>
   <si>
-    <t>NCT01014026</t>
-  </si>
-  <si>
     <t>NCT02304900</t>
   </si>
   <si>
+    <t>NCT00489697</t>
+  </si>
+  <si>
     <t>NCT00308893</t>
   </si>
   <si>
-    <t>NCT00489697</t>
-  </si>
-  <si>
     <t>NCT01350882</t>
   </si>
   <si>
+    <t>NCT01382160</t>
+  </si>
+  <si>
+    <t>NCT00843817</t>
+  </si>
+  <si>
+    <t>NCT00841295</t>
+  </si>
+  <si>
+    <t>NCT01325259</t>
+  </si>
+  <si>
+    <t>NCT02574884</t>
+  </si>
+  <si>
     <t>NCT01427036</t>
   </si>
   <si>
-    <t>NCT00843817</t>
-  </si>
-  <si>
-    <t>NCT00841295</t>
-  </si>
-  <si>
-    <t>NCT02574884</t>
+    <t>NCT00512434</t>
   </si>
   <si>
     <t>NCT01737606</t>
   </si>
   <si>
-    <t>NCT00512434</t>
-  </si>
-  <si>
-    <t>NCT01382160</t>
-  </si>
-  <si>
-    <t>NCT01325259</t>
-  </si>
-  <si>
     <t>NCT02570620</t>
   </si>
   <si>
     <t>NCT01770548</t>
   </si>
   <si>
+    <t>NCT02061254</t>
+  </si>
+  <si>
+    <t>NCT02367001</t>
+  </si>
+  <si>
     <t>NCT02302534</t>
   </si>
   <si>
+    <t>NCT02026622</t>
+  </si>
+  <si>
+    <t>NCT02567058</t>
+  </si>
+  <si>
+    <t>NCT01895764</t>
+  </si>
+  <si>
     <t>NCT01732991</t>
   </si>
   <si>
-    <t>NCT02567058</t>
-  </si>
-  <si>
-    <t>NCT01895764</t>
-  </si>
-  <si>
     <t>NCT01958814</t>
   </si>
   <si>
-    <t>NCT02367001</t>
-  </si>
-  <si>
-    <t>NCT02061254</t>
-  </si>
-  <si>
-    <t>NCT02026622</t>
-  </si>
-  <si>
     <t>NCT02103374</t>
   </si>
   <si>
+    <t>NCT01960283</t>
+  </si>
+  <si>
     <t>NCT02255084</t>
   </si>
   <si>
-    <t>NCT01960283</t>
-  </si>
-  <si>
     <t>NCT01729468</t>
   </si>
   <si>
@@ -178,85 +178,88 @@
     <t>NCT02302573</t>
   </si>
   <si>
+    <t>NCT02789839</t>
+  </si>
+  <si>
     <t>NCT01388413</t>
   </si>
   <si>
+    <t>NCT01816009</t>
+  </si>
+  <si>
     <t>NCT00645606</t>
   </si>
   <si>
-    <t>NCT01816009</t>
-  </si>
-  <si>
-    <t>NCT02789839</t>
+    <t>NCT02573974</t>
+  </si>
+  <si>
+    <t>NCT02907060</t>
+  </si>
+  <si>
+    <t>NCT02062099</t>
+  </si>
+  <si>
+    <t>NCT02185222</t>
+  </si>
+  <si>
+    <t>NCT02263651</t>
+  </si>
+  <si>
+    <t>NCT01983436</t>
+  </si>
+  <si>
+    <t>NCT02302547</t>
+  </si>
+  <si>
+    <t>NCT01628432</t>
   </si>
   <si>
     <t>NCT01962311</t>
   </si>
   <si>
-    <t>NCT01983436</t>
-  </si>
-  <si>
-    <t>NCT01628432</t>
-  </si>
-  <si>
-    <t>NCT02062099</t>
-  </si>
-  <si>
-    <t>NCT02302547</t>
-  </si>
-  <si>
-    <t>NCT02263651</t>
-  </si>
-  <si>
     <t>NCT02812979</t>
   </si>
   <si>
-    <t>NCT02573974</t>
-  </si>
-  <si>
-    <t>NCT02907060</t>
-  </si>
-  <si>
     <t>NCT02278848</t>
   </si>
   <si>
-    <t>NCT02185222</t>
+    <t>NCT03000920</t>
+  </si>
+  <si>
+    <t>NCT03022968</t>
+  </si>
+  <si>
+    <t>NCT03027479</t>
+  </si>
+  <si>
+    <t>NCT02917473</t>
+  </si>
+  <si>
+    <t>NCT02670226</t>
+  </si>
+  <si>
+    <t>NCT03084133</t>
+  </si>
+  <si>
+    <t>NCT02719951</t>
+  </si>
+  <si>
+    <t>NCT02377206</t>
+  </si>
+  <si>
+    <t>NCT02304354</t>
+  </si>
+  <si>
+    <t>NCT02509468</t>
+  </si>
+  <si>
+    <t>NCT02931825</t>
   </si>
   <si>
     <t>NCT01364857</t>
   </si>
   <si>
-    <t>NCT02377206</t>
-  </si>
-  <si>
-    <t>NCT03022968</t>
-  </si>
-  <si>
-    <t>NCT02509468</t>
-  </si>
-  <si>
-    <t>NCT03027479</t>
-  </si>
-  <si>
-    <t>NCT02719951</t>
-  </si>
-  <si>
-    <t>NCT03084133</t>
-  </si>
-  <si>
-    <t>NCT02304354</t>
-  </si>
-  <si>
-    <t>NCT02670226</t>
-  </si>
-  <si>
-    <t>NCT02931825</t>
-  </si>
-  <si>
-    <t>NCT03000920</t>
-  </si>
-  <si>
-    <t>NCT02917473</t>
+    <t>NCT01962753</t>
   </si>
   <si>
     <t>NCT04359875</t>
@@ -265,73 +268,109 @@
     <t>NCT03002142</t>
   </si>
   <si>
-    <t>NCT01962753</t>
+    <t>NCT03024229</t>
+  </si>
+  <si>
+    <t>NCT03927729</t>
+  </si>
+  <si>
+    <t>NCT02517489</t>
   </si>
   <si>
     <t>NCT02990286</t>
   </si>
   <si>
-    <t>NCT02517489</t>
-  </si>
-  <si>
-    <t>NCT03024229</t>
-  </si>
-  <si>
-    <t>NCT03927729</t>
-  </si>
-  <si>
     <t>NCT02809222</t>
   </si>
   <si>
     <t>NCT04879277</t>
   </si>
   <si>
+    <t>NCT02455284</t>
+  </si>
+  <si>
+    <t>NCT02900053</t>
+  </si>
+  <si>
+    <t>NCT03149640</t>
+  </si>
+  <si>
+    <t>NCT04199143</t>
+  </si>
+  <si>
     <t>NCT03118193</t>
   </si>
   <si>
-    <t>NCT02455284</t>
-  </si>
-  <si>
-    <t>NCT04199143</t>
-  </si>
-  <si>
     <t>NCT03856684</t>
   </si>
   <si>
     <t>NCT04358939</t>
   </si>
   <si>
-    <t>NCT03149640</t>
-  </si>
-  <si>
-    <t>NCT02900053</t>
+    <t>NCT04725786</t>
+  </si>
+  <si>
+    <t>NCT03458975</t>
   </si>
   <si>
     <t>NCT03924180</t>
   </si>
   <si>
-    <t>NCT04725786</t>
-  </si>
-  <si>
     <t>NCT02229123</t>
   </si>
   <si>
-    <t>NCT03458975</t>
-  </si>
-  <si>
     <t>NCT06119971</t>
   </si>
   <si>
+    <t>NCT03680963</t>
+  </si>
+  <si>
+    <t>NCT03970499</t>
+  </si>
+  <si>
+    <t>NCT04859608</t>
+  </si>
+  <si>
+    <t>NCT04570202</t>
+  </si>
+  <si>
     <t>NCT04953286</t>
   </si>
   <si>
-    <t>NCT03970499</t>
-  </si>
-  <si>
-    <t>NCT04570202</t>
-  </si>
-  <si>
-    <t>NCT03680963</t>
+    <t>2010-021449-28</t>
+  </si>
+  <si>
+    <t>2012-004939-23</t>
+  </si>
+  <si>
+    <t>2011-004802-20</t>
+  </si>
+  <si>
+    <t>2010-023743-14</t>
+  </si>
+  <si>
+    <t>2011-003536-30</t>
+  </si>
+  <si>
+    <t>2013-003936-65</t>
+  </si>
+  <si>
+    <t>2010-021241-44</t>
+  </si>
+  <si>
+    <t>2010-021242-22</t>
+  </si>
+  <si>
+    <t>2007-001015-28</t>
+  </si>
+  <si>
+    <t>2013-005110-36</t>
+  </si>
+  <si>
+    <t>2014-000859-91</t>
+  </si>
+  <si>
+    <t>2015-001096-43</t>
   </si>
   <si>
     <t>2007</t>
@@ -388,99 +427,99 @@
     <t>A Pilot Study Evaluation of the Efficacy of SonoVue to Detect and Characterise Breast Lesions</t>
   </si>
   <si>
+    <t>Comparison Between Abstention and Intrauterine Aspiration in the Treatment of Anechoic Fetal Ovarian Cysts to Prevent Ovarian Torsion</t>
+  </si>
+  <si>
     <t>Contrast-Enhanced Ultrasound and Neoadjuvant Chemotherapy of Breast Cancer: Relationship Between Early Vascular Changes of the Tumor and Late Tumoral Response</t>
   </si>
   <si>
-    <t>Comparison Between Abstention and Intrauterine Aspiration in the Treatment of Anechoic Fetal Ovarian Cysts to Prevent Ovarian Torsion</t>
-  </si>
-  <si>
     <t>18F-FDG Positron Emission Tomography to Study the Response to Adalimumab in Rheumatoid Arthritis. A Monocentric Pilot Study</t>
   </si>
   <si>
+    <t>Effect of Methotrexate on the Relation Dose-effect of Infliximab in Ankylosing Spondylitis</t>
+  </si>
+  <si>
     <t>Real-time Continuous Glucose Monitoring Reduces Duration of Hypoglycemia Episodes in Very Low Birth Weight Neonates</t>
   </si>
   <si>
-    <t>Effect of Methotrexate on the Relation Dose-effect of Infliximab in Ankylosing Spondylitis</t>
+    <t>Human Papillomavirus DNA Testing Using Self-collected Samples for Cervical Cancer Screening: an Alternative Strategy for Unscreened Women?</t>
   </si>
   <si>
     <t>Randomized Study With Medico-economic Evaluation Comparing the Use of PTFE Covered Stents vs Naked Stent in the TIPS (Transjugular Intra-hepatic Porto-systemic Shunt)</t>
   </si>
   <si>
-    <t>Human Papillomavirus DNA Testing Using Self-collected Samples for Cervical Cancer Screening: an Alternative Strategy for Unscreened Women?</t>
-  </si>
-  <si>
     <t>Effect of the Color of the Intra-eye Implant in the Cataract Surgery on the Sleep</t>
   </si>
   <si>
+    <t>Medical and Economical Evaluation of Contrast-enhanced Ultrasound Imaging for the Early Estimate of Bevacizumab Effect on Colorectal Cancer Liver Metastases</t>
+  </si>
+  <si>
     <t>Brain Derived Neurotrophic Factor (BDNF) Gene Polymorphism and Response to Antidepressants Treatment in Major Depression</t>
   </si>
   <si>
-    <t>Medical and Economical Evaluation of Contrast-enhanced Ultrasound Imaging for the Early Estimate of Bevacizumab Effect on Colorectal Cancer Liver Metastases</t>
-  </si>
-  <si>
     <t>Phase III Study of Impact of Treatment With Rituximab on the Progression of Humoral Acute Rejection After Renal Transplantation</t>
   </si>
   <si>
+    <t>Serum Concentration of Adalimumab (Humira) as a Predictive Factor of Clinical Outcomes in Rheumatoid Arthritis (AFORA)</t>
+  </si>
+  <si>
+    <t>RhDNase Effect on Biodistribution of PMN Serine Proteases in Cystic Fibrosis Sputum</t>
+  </si>
+  <si>
+    <t>Effects of Parenteral L-carnitine Supplementation in Premature Neonates</t>
+  </si>
+  <si>
+    <t>Molecular Imaging of Cerebral Amyloid Plaques Using PET With Fluoro Tracker for Early Diagnosis of Alzheimer's Disease</t>
+  </si>
+  <si>
     <t>Impact Sur le Saignement Per et Post opératoire de 2 stratégies d'ostéosynthèse Des Fractures du Massif trochantérien du Sujet &gt; 65 Ans : Essai randomisé Comparant le système MISS et le système PHS</t>
   </si>
   <si>
-    <t>RhDNase Effect on Biodistribution of PMN Serine Proteases in Cystic Fibrosis Sputum</t>
-  </si>
-  <si>
-    <t>Effects of Parenteral L-carnitine Supplementation in Premature Neonates</t>
+    <t>Injection of Concentrated Autologous Bone-marrow (IMOCA) and Bone Union of Open Tibial Shaft Fracture: Randomized Study to Assess Efficiency of IMOCA in Addition to Standard of Care.</t>
   </si>
   <si>
     <t>Ultrasonic Explorations of Cerebral Tissue Motions - Influence of Aging</t>
   </si>
   <si>
-    <t>Injection of Concentrated Autologous Bone-marrow (IMOCA) and Bone Union of Open Tibial Shaft Fracture: Randomized Study to Assess Efficiency of IMOCA in Addition to Standard of Care.</t>
-  </si>
-  <si>
-    <t>Serum Concentration of Adalimumab (Humira) as a Predictive Factor of Clinical Outcomes in Rheumatoid Arthritis (AFORA)</t>
-  </si>
-  <si>
-    <t>Molecular Imaging of Cerebral Amyloid Plaques Using PET With Fluoro Tracker for Early Diagnosis of Alzheimer's Disease</t>
-  </si>
-  <si>
     <t>Apport de l'échographie du Col Dans l'évaluation du Délai Induction Accouchement (DIA) Chez Des Patientes à Score de Bishop défavorable après déclenchement Par Dinoprostone Intravaginal</t>
   </si>
   <si>
     <t>Autism and Glutamatergic Synapse : Research of Genetic Mutations and Identification of Clinical and Neurophysiological Markers.</t>
   </si>
   <si>
+    <t>Transient Elastography DEdicated to Cosmetology And Dermatology (TEDECAD)</t>
+  </si>
+  <si>
+    <t>Randomized Trial Evaluating the Effectiveness of a "Targeted Communication" With the General Practitioner Involvement in Cancer Screening Invitation Letters</t>
+  </si>
+  <si>
     <t>Pilot Study of Functional and Morphometric Brain Abnormalities Related to Adolescent Idiopathic Scoliosis (MOR-FO-SIA)</t>
   </si>
   <si>
+    <t>Comparative Study of Physiological and Cerebrovascular Reactivity in Depression, at the Three Phases of Emotion</t>
+  </si>
+  <si>
+    <t>Biomechanical and Ultrasonic Assessment of the Achilles Tendon in Vivo (MEDUSAA)</t>
+  </si>
+  <si>
+    <t>Effect of the Combination of Methotrexate and Adalimumab on Reduction of Immunization in Ankylosing Spondylitis (COMARIS)</t>
+  </si>
+  <si>
     <t>Assessing the Impact of the Prostatic Photo-vaporization (PVP) With Greenlight Laser Using Prostatic MRI and Contrast-enhanced Ultrasound</t>
   </si>
   <si>
-    <t>Biomechanical and Ultrasonic Assessment of the Achilles Tendon in Vivo (MEDUSAA)</t>
-  </si>
-  <si>
-    <t>Effect of the Combination of Methotrexate and Adalimumab on Reduction of Immunization in Ankylosing Spondylitis (COMARIS)</t>
-  </si>
-  <si>
     <t>Controlled Randomized Double-blind Study Comparing Salbutamol and Placebo Via Aerosol in Chronic Obstructive Respiratory Insufficiency in Exacerbartion Treated With Noninvasive Ventilation</t>
   </si>
   <si>
-    <t>Randomized Trial Evaluating the Effectiveness of a "Targeted Communication" With the General Practitioner Involvement in Cancer Screening Invitation Letters</t>
-  </si>
-  <si>
-    <t>Transient Elastography DEdicated to Cosmetology And Dermatology (TEDECAD)</t>
-  </si>
-  <si>
-    <t>Comparative Study of Physiological and Cerebrovascular Reactivity in Depression, at the Three Phases of Emotion</t>
-  </si>
-  <si>
     <t>Evaluation of Benefit of Nebulized Bronchodilators at Home in Severe Chronic Obstructive Pulmonary Disease and Very Severe Steady State</t>
   </si>
   <si>
+    <t>Randomized Clinical Trial Evaluating the Efficacy of Methotrexate in Addition to Anti-H1 Versus Placebo and Anti-H1 in the Treatment of Severe Chronic Idiopathic Urticaria</t>
+  </si>
+  <si>
     <t>Attitude of Unscreened Women Face to Different Strategies to Participate in Cervical Cancer Screening by Vaginal Self-sampling : Home-mailed or Invitation to Remove to Their General Practitioner</t>
   </si>
   <si>
-    <t>Randomized Clinical Trial Evaluating the Efficacy of Methotrexate in Addition to Anti-H1 Versus Placebo and Anti-H1 in the Treatment of Severe Chronic Idiopathic Urticaria</t>
-  </si>
-  <si>
     <t>Prevention of Pre-eclampsia and SGA by Low-Dose Aspirin in Nulliparous Women With Abnormal First-trimester Uterine Artery Dopplers</t>
   </si>
   <si>
@@ -490,85 +529,88 @@
     <t>Placenta Accreta : Contrast-enhanced Ultrasound Analysis in High Risk Population</t>
   </si>
   <si>
+    <t>Analyses of Bone Marrow and Blood Samples From Healthy Volunteers: Focus on the redOx Metabolism - HEALTHOX</t>
+  </si>
+  <si>
     <t>A Randomized, Multicenter, Parallel Group Study to Evaluate Safety and Efficacy of a Weekly Oral Cyclic Antibiotic Programme in the Prevention of Urinary Tract Infection on Neurological Bladder</t>
   </si>
   <si>
+    <t>Multicentric Study, of Non Inferiority, Randomized, Opened, to Evaluate the Two Durations Effectiveness of Antibiotherapy (6 Weeks Versus 12 Weeks) in the Treatment of Osteo-articular Prostheses Infections, With Prosthetic Change (in 1 Time or 2 Long Times) or Not (Articular Washing)</t>
+  </si>
+  <si>
     <t>Single-agent Rituximab as Maintenance Treatment Versus Observation After Combined Induction Immunochemotherapy With Fludarabine, Cyclophosphamide and Rituximab in Patients Older Than 65 Years With Previously Untreated Chronic Lymphocytic Leukemia: a Phase III Trial of FILO</t>
   </si>
   <si>
-    <t>Multicentric Study, of Non Inferiority, Randomized, Opened, to Evaluate the Two Durations Effectiveness of Antibiotherapy (6 Weeks Versus 12 Weeks) in the Treatment of Osteo-articular Prostheses Infections, With Prosthetic Change (in 1 Time or 2 Long Times) or Not (Articular Washing)</t>
-  </si>
-  <si>
-    <t>Analyses of Bone Marrow and Blood Samples From Healthy Volunteers: Focus on the redOx Metabolism - HEALTHOX</t>
+    <t>Study of Alterations in Skeletal Muscle Energy Metabolism in Undernourished Patients With Gastrointestinal Cancer</t>
+  </si>
+  <si>
+    <t>Propess® Versus Double Balloon for Cervical Ripening of Prolonged Pregnancies: a Randomised Controlled Trial</t>
+  </si>
+  <si>
+    <t>PET Imaging of the Translocator Proteine Ligands (TSPO) With [18 F] DPA-714 Biomarker of NeuroInflammation in Cognitive Decline (NIDECO)</t>
+  </si>
+  <si>
+    <t>Effect of Vitamin D on Cognitive Decline of Patients With Memory Complaint</t>
+  </si>
+  <si>
+    <t>Dead Space Closure With Quilting Suture Versus Conventional Closure With Drainage in Prevention of Seroma Formation After Mastectomy for Breast Cancer : a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Impact of Manual Lymphatic Drainage on Postoperative Edema of the Face and the Neck After Orthognathic Surgery.Open-label Multicenter Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Randomized Clinical Trial to Evaluate the Interest of a Down-scaled Treatment Strategy Using Dual Therapy (Nucleoside Analogs) in HIV Infected Patients Already Being Treated Using Triple Therapy, Who Present With a Successful Virological Control and for Which the HIV Reservoir is Low to Moderate</t>
+  </si>
+  <si>
+    <t>Effect of Total Salpingectomy During Conservative Hysterectomy for Benign Disease on Ovarian Function: Non Inferiority Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Evaluation of Metabolomic Analysis in Early Diagnosis of ALS</t>
   </si>
   <si>
-    <t>Impact of Manual Lymphatic Drainage on Postoperative Edema of the Face and the Neck After Orthognathic Surgery.Open-label Multicenter Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Effect of Total Salpingectomy During Conservative Hysterectomy for Benign Disease on Ovarian Function: Non Inferiority Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>PET Imaging of the Translocator Proteine Ligands (TSPO) With [18 F] DPA-714 Biomarker of NeuroInflammation in Cognitive Decline (NIDECO)</t>
-  </si>
-  <si>
-    <t>Randomized Clinical Trial to Evaluate the Interest of a Down-scaled Treatment Strategy Using Dual Therapy (Nucleoside Analogs) in HIV Infected Patients Already Being Treated Using Triple Therapy, Who Present With a Successful Virological Control and for Which the HIV Reservoir is Low to Moderate</t>
-  </si>
-  <si>
-    <t>Dead Space Closure With Quilting Suture Versus Conventional Closure With Drainage in Prevention of Seroma Formation After Mastectomy for Breast Cancer : a Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>Evaluation of the Effectiveness of the Nebulization Bronchodilators Under High Nasal Flow Humidified Compared to a Usual Method</t>
   </si>
   <si>
-    <t>Study of Alterations in Skeletal Muscle Energy Metabolism in Undernourished Patients With Gastrointestinal Cancer</t>
-  </si>
-  <si>
-    <t>Propess® Versus Double Balloon for Cervical Ripening of Prolonged Pregnancies: a Randomised Controlled Trial</t>
-  </si>
-  <si>
     <t>Multimodal Investigation in the Diagnosis and Treatment of Chronic Adult Hydrocephalus</t>
   </si>
   <si>
-    <t>Effect of Vitamin D on Cognitive Decline of Patients With Memory Complaint</t>
+    <t>Multicenter Randomized Controlled Trial Evaluating the Effectiveness and Cost-effectiveness of the Use of Short Message Service (SMS) in the Screening Invitation Strategy for Breast Cancer.</t>
+  </si>
+  <si>
+    <t>Tau Brain Imaging in Typical and Atypical Alzheimer's Disease (AD)</t>
+  </si>
+  <si>
+    <t>Study of Differences in Skeletal Muscle Energy Metabolism Alterations in Women With Weight Loss and Ovarian and/or Endometrial Cancer Based on the Body Mass Index</t>
+  </si>
+  <si>
+    <t>Written Advice to Improve Compliance With Early Detection of Melanoma in First-degree Relatives: a Multicenter, Cluster-randomized Intervention Trial to Evaluate the Impact of Specific Incentives and Study Psychological Determinants of Early Melanoma Detection Behavior in First-degree Relatives</t>
+  </si>
+  <si>
+    <t>Metabolomics and Transcriptomics Approaches to Identify Muscular Biomarkers in Amyotrophic Lateral Sclerosis</t>
+  </si>
+  <si>
+    <t>Impact of EDUcation Strategy on Patients With COLorectal CANCER or Advanced Adenoma in the Detection of Colorectal Cancer of Their First-degree Relatives - Randomized, Multicenter Cluster Test</t>
+  </si>
+  <si>
+    <t>Glutaminergic Transmission in Autism : Molecular Imaging Exploration</t>
+  </si>
+  <si>
+    <t>Neuroinflammation and Cognitive Decline in Alzheimer Disease (AD) : Pilot Study of Translocator Proteins Ligand PET Imaging With [18F]DPA-714</t>
+  </si>
+  <si>
+    <t>Relationship Between T LYmphocytes Depletion and Clinical Response to RITUXimab in Rheumatoid Arthritis (LYRITUX)</t>
+  </si>
+  <si>
+    <t>Treatment of Superficial Voluminous Complicated Slow-flow Vascular Malformations With Sirolimus: a Phase 2 Trial in Children Observational-phase Designed</t>
+  </si>
+  <si>
+    <t>Identification of High Risk People for Colorectal Cancer in Indre-et-Loire (France) and Evaluation of a Specific Surveillance System : a Randomized Trial Assessing the Efficacy of a Letter Encouraging People to Perform Colonoscopy Screening</t>
   </si>
   <si>
     <t>French National Prospective Cohort of Children With Port Wine Stain on a Limb = "Cohorte Nationale d'Enfants Avec Angiome Plan de Membre inférieur"</t>
   </si>
   <si>
-    <t>Neuroinflammation and Cognitive Decline in Alzheimer Disease (AD) : Pilot Study of Translocator Proteins Ligand PET Imaging With [18F]DPA-714</t>
-  </si>
-  <si>
-    <t>Tau Brain Imaging in Typical and Atypical Alzheimer's Disease (AD)</t>
-  </si>
-  <si>
-    <t>Treatment of Superficial Voluminous Complicated Slow-flow Vascular Malformations With Sirolimus: a Phase 2 Trial in Children Observational-phase Designed</t>
-  </si>
-  <si>
-    <t>Study of Differences in Skeletal Muscle Energy Metabolism Alterations in Women With Weight Loss and Ovarian and/or Endometrial Cancer Based on the Body Mass Index</t>
-  </si>
-  <si>
-    <t>Glutaminergic Transmission in Autism : Molecular Imaging Exploration</t>
-  </si>
-  <si>
-    <t>Impact of EDUcation Strategy on Patients With COLorectal CANCER or Advanced Adenoma in the Detection of Colorectal Cancer of Their First-degree Relatives - Randomized, Multicenter Cluster Test</t>
-  </si>
-  <si>
-    <t>Relationship Between T LYmphocytes Depletion and Clinical Response to RITUXimab in Rheumatoid Arthritis (LYRITUX)</t>
-  </si>
-  <si>
-    <t>Metabolomics and Transcriptomics Approaches to Identify Muscular Biomarkers in Amyotrophic Lateral Sclerosis</t>
-  </si>
-  <si>
-    <t>Identification of High Risk People for Colorectal Cancer in Indre-et-Loire (France) and Evaluation of a Specific Surveillance System : a Randomized Trial Assessing the Efficacy of a Letter Encouraging People to Perform Colonoscopy Screening</t>
-  </si>
-  <si>
-    <t>Multicenter Randomized Controlled Trial Evaluating the Effectiveness and Cost-effectiveness of the Use of Short Message Service (SMS) in the Screening Invitation Strategy for Breast Cancer.</t>
-  </si>
-  <si>
-    <t>Written Advice to Improve Compliance With Early Detection of Melanoma in First-degree Relatives: a Multicenter, Cluster-randomized Intervention Trial to Evaluate the Impact of Specific Incentives and Study Psychological Determinants of Early Melanoma Detection Behavior in First-degree Relatives</t>
+    <t>Depression in the Elderly and Cerebral Amyloid Plaques: Characterization by [18F] AV-45 Affectives Symptoms and Amyloïd Plaques (ASAP)</t>
   </si>
   <si>
     <t>Does a Systematic Phone-call by a Medical Student/General Practitioner Team in Patients Suffering From a Chronic Condition During the COVID-19 Containment Period Impact One-month Hospitalization's Rate in France? A Cluster Randomized Trial</t>
@@ -577,75 +619,75 @@
     <t>Auditory Rehabilitation With Hearing Aids and Cognition in Alzheimer Patients</t>
   </si>
   <si>
-    <t>Depression in the Elderly and Cerebral Amyloid Plaques: Characterization by [18F] AV-45 Affectives Symptoms and Amyloïd Plaques (ASAP)</t>
+    <t>The Importance of Metabolomics in Assessing the Quality of Kidney Transplants Retained on a LifePort® Perfusion Machine Before Renal Transplantation</t>
+  </si>
+  <si>
+    <t>Use of Methoxyflurane (Penthrox) as an Antalgic in Hospital Trauma</t>
+  </si>
+  <si>
+    <t>Effects of Low-dose Corticosteroids on Survival of Severe Community-acquired Pneumonia</t>
   </si>
   <si>
     <t>Evaluation of Efficacy and Safety of Rituximab in Association With Mycophenolate Mofetil Versus Mycophenolate Mofetil Alone in Patients With Interstitial Lung Diseases (ILD) Non-responders to a First-line Immunosuppressive Treatment</t>
   </si>
   <si>
-    <t>Effects of Low-dose Corticosteroids on Survival of Severe Community-acquired Pneumonia</t>
-  </si>
-  <si>
-    <t>The Importance of Metabolomics in Assessing the Quality of Kidney Transplants Retained on a LifePort® Perfusion Machine Before Renal Transplantation</t>
-  </si>
-  <si>
-    <t>Use of Methoxyflurane (Penthrox) as an Antalgic in Hospital Trauma</t>
-  </si>
-  <si>
     <t>Kinetics of the Plasmatic Concentration of L-Ascorbic Acid in Patient With Myelodysplastic Syndromes and Control Subjects</t>
   </si>
   <si>
     <t>Etude de l'INflammation systémique de Bas GRade Chez Les Patients Adultes Atteints de PHénylcétonurie</t>
   </si>
   <si>
+    <t>In Vivo and ex Vivo Validation of MR Tractography of Brain White Matter Tracts - FIBRATLAS II-III</t>
+  </si>
+  <si>
+    <t>Post-traumatic Stress Disorder Treatment Using Transcranial Direct Current Stimulation (tDCS) Enhancement of Trauma-focused Therapy : a Two-arm Randomized Controlled Multicentric Study - T-TREAt</t>
+  </si>
+  <si>
+    <t>Double-blinded Multicenter Randomized Controlled Trial Comparing Inhaled Amikacin Versus Placebo to Prevent Ventilator Associated Pneumonia</t>
+  </si>
+  <si>
+    <t>Cerebrovascular Reactivity to Nitrous Oxyde in Resistant Depression: the PROTOBRAIN Pilote Study</t>
+  </si>
+  <si>
     <t>Biomarkers of Antidepressant Resistance - BIORESA</t>
   </si>
   <si>
-    <t>In Vivo and ex Vivo Validation of MR Tractography of Brain White Matter Tracts - FIBRATLAS II-III</t>
-  </si>
-  <si>
-    <t>Cerebrovascular Reactivity to Nitrous Oxyde in Resistant Depression: the PROTOBRAIN Pilote Study</t>
-  </si>
-  <si>
     <t>Randomized Trial Evaluating Women's Behavior Not Participating in Cervical Cancer Screening Facing Three Strategies for Optimizing Home Sending by Post of Vaginal Self-sampling Kit</t>
   </si>
   <si>
     <t>Evaluation of Prone Position in Conscious Patients on Nasal High-flow Oxygen Therapy for COVID-19 Disease Induced Acute Respiratory Distress Syndrome</t>
   </si>
   <si>
-    <t>Double-blinded Multicenter Randomized Controlled Trial Comparing Inhaled Amikacin Versus Placebo to Prevent Ventilator Associated Pneumonia</t>
-  </si>
-  <si>
-    <t>Post-traumatic Stress Disorder Treatment Using Transcranial Direct Current Stimulation (tDCS) Enhancement of Trauma-focused Therapy : a Two-arm Randomized Controlled Multicentric Study - T-TREAt</t>
+    <t>Pertinence Clinique de l'échographie Thoracique Pour le Diagnostic précoce de la Pneumopathie Interstitielle Diffuse de la sclérodermie systémique - Etude Pilote</t>
+  </si>
+  <si>
+    <t>Targeted Delivery of Chemotherapy With Ultrasound and Microbubbles</t>
   </si>
   <si>
     <t>Glytactin EfficiEncy in Non or Insufficiently Treated Adult PHENylketonuria Patients</t>
   </si>
   <si>
-    <t>Pertinence Clinique de l'échographie Thoracique Pour le Diagnostic précoce de la Pneumopathie Interstitielle Diffuse de la sclérodermie systémique - Etude Pilote</t>
-  </si>
-  <si>
     <t>Levetiracetam Efficacy and Safety as First-line Treatment of Neonatal Seizures Occuring in Hypoxic-ischemic Encephalopathy Context</t>
   </si>
   <si>
-    <t>Targeted Delivery of Chemotherapy With Ultrasound and Microbubbles</t>
-  </si>
-  <si>
     <t>Effect of Acupressure on the "Yin-Tang" and "Shen-Men" Points on Pre and Postoperative Anxiety in Elective Caesarean Section: a Prospective, Single-blind, Randomised, Controlled Trial</t>
   </si>
   <si>
+    <t>Early Versus Differed Arterial Catheterization in Critically Ill Patients With Acute Circulatory Failure: A Multicentre, Open-label, Pragmatic, Randomised, Non-inferiority Controlled Trial (EVERDAC Trial)</t>
+  </si>
+  <si>
+    <t>Evaluation de l'intérêt de l'élastographie Ultrasonore et du Doppler Ultrasensible peropératoires Dans la Prise en Charge Chirurgicale Des Tumeurs cérébrales</t>
+  </si>
+  <si>
+    <t>Personalized Spacing of Eculizumab Infusions Based on Therapeutic Pharmacological Monitoring: Prospective Health-economic Evaluation in Patients in Remission With Atypical Hemolytic Uraemic Syndrome Requiring Long-term Treatment.</t>
+  </si>
+  <si>
+    <t>Symptoms of Depression, Stress and Burnout, and Long-term Psychological Impact in Health Care Professionals Exposed to the Novel Coronavirus Disease 2019 Outbreak (HARD-COVID-19 - Health cAre woRkers exposeD to covID-19)</t>
+  </si>
+  <si>
     <t>Tear Fluid and Ocular Surface Metabolomics and Lipidomics in Lateral Amyotrophic Sclerosis: a Prospective Comparative Study</t>
   </si>
   <si>
-    <t>Evaluation de l'intérêt de l'élastographie Ultrasonore et du Doppler Ultrasensible peropératoires Dans la Prise en Charge Chirurgicale Des Tumeurs cérébrales</t>
-  </si>
-  <si>
-    <t>Symptoms of Depression, Stress and Burnout, and Long-term Psychological Impact in Health Care Professionals Exposed to the Novel Coronavirus Disease 2019 Outbreak (HARD-COVID-19 - Health cAre woRkers exposeD to covID-19)</t>
-  </si>
-  <si>
-    <t>Early Versus Differed Arterial Catheterization in Critically Ill Patients With Acute Circulatory Failure: A Multicentre, Open-label, Pragmatic, Randomised, Non-inferiority Controlled Trial (EVERDAC Trial)</t>
-  </si>
-  <si>
     <t>PETRA</t>
   </si>
   <si>
@@ -661,151 +703,154 @@
     <t>RITUX-ERAH</t>
   </si>
   <si>
+    <t>AFORA</t>
+  </si>
+  <si>
+    <t>BioDNase</t>
+  </si>
+  <si>
+    <t>CarniPrema</t>
+  </si>
+  <si>
+    <t>FAIR-AD</t>
+  </si>
+  <si>
+    <t>VINTAGE VHC</t>
+  </si>
+  <si>
     <t>MISSvsPHS</t>
   </si>
   <si>
-    <t>BioDNase</t>
-  </si>
-  <si>
-    <t>CarniPrema</t>
-  </si>
-  <si>
-    <t>VINTAGE VHC</t>
+    <t>IMOCA</t>
   </si>
   <si>
     <t>COSTUM</t>
   </si>
   <si>
-    <t>IMOCA</t>
-  </si>
-  <si>
-    <t>AFORA</t>
-  </si>
-  <si>
-    <t>FAIR-AD</t>
-  </si>
-  <si>
     <t>ECOLDIA</t>
   </si>
   <si>
     <t>NMDA-Autism</t>
   </si>
   <si>
+    <t>TEDECAD</t>
+  </si>
+  <si>
+    <t>GPs</t>
+  </si>
+  <si>
     <t>MOR-FO-SIA</t>
   </si>
   <si>
+    <t>EMPHILINE</t>
+  </si>
+  <si>
+    <t>MEDUSAA</t>
+  </si>
+  <si>
+    <t>COMARIS</t>
+  </si>
+  <si>
     <t>PROPIL</t>
   </si>
   <si>
-    <t>MEDUSAA</t>
-  </si>
-  <si>
-    <t>COMARIS</t>
-  </si>
-  <si>
     <t>BANNISTER</t>
   </si>
   <si>
-    <t>GPs</t>
-  </si>
-  <si>
-    <t>TEDECAD</t>
-  </si>
-  <si>
-    <t>EMPHILINE</t>
-  </si>
-  <si>
     <t>Nebuadom</t>
   </si>
   <si>
+    <t>MUCIS</t>
+  </si>
+  <si>
     <t>APACHE-3</t>
   </si>
   <si>
-    <t>MUCIS</t>
-  </si>
-  <si>
     <t>PERASTUN</t>
   </si>
   <si>
     <t>IoxRea</t>
   </si>
   <si>
+    <t>HEALTHOX</t>
+  </si>
+  <si>
     <t>PACHIU</t>
   </si>
   <si>
+    <t>DATIPO</t>
+  </si>
+  <si>
     <t>LLC2007SA</t>
   </si>
   <si>
-    <t>DATIPO</t>
-  </si>
-  <si>
-    <t>HEALTHOX</t>
+    <t>METERMUCADIG</t>
+  </si>
+  <si>
+    <t>NIDeCo</t>
+  </si>
+  <si>
+    <t>D-COG</t>
+  </si>
+  <si>
+    <t>QUISERMAS</t>
+  </si>
+  <si>
+    <t>DLMOF</t>
+  </si>
+  <si>
+    <t>TRULIGHT</t>
+  </si>
+  <si>
+    <t>SALPINGOVA</t>
   </si>
   <si>
     <t>METABALS</t>
   </si>
   <si>
-    <t>DLMOF</t>
-  </si>
-  <si>
-    <t>SALPINGOVA</t>
-  </si>
-  <si>
-    <t>NIDeCo</t>
-  </si>
-  <si>
-    <t>TRULIGHT</t>
-  </si>
-  <si>
-    <t>QUISERMAS</t>
-  </si>
-  <si>
     <t>AirvoNEB</t>
   </si>
   <si>
-    <t>METERMUCADIG</t>
-  </si>
-  <si>
     <t>Multimod'HCA</t>
   </si>
   <si>
-    <t>D-COG</t>
+    <t>USIMaPI</t>
+  </si>
+  <si>
+    <t>TEPTAU</t>
+  </si>
+  <si>
+    <t>METERMUS-IMC</t>
+  </si>
+  <si>
+    <t>FADEMELA</t>
+  </si>
+  <si>
+    <t>METABOMU</t>
+  </si>
+  <si>
+    <t>EDUCANCOLAGE</t>
+  </si>
+  <si>
+    <t>TANGAU</t>
+  </si>
+  <si>
+    <t>NICAD</t>
+  </si>
+  <si>
+    <t>LYRITUX</t>
+  </si>
+  <si>
+    <t>PERFORMUS</t>
+  </si>
+  <si>
+    <t>ISIRECC</t>
   </si>
   <si>
     <t>CONAPE</t>
   </si>
   <si>
-    <t>NICAD</t>
-  </si>
-  <si>
-    <t>TEPTAU</t>
-  </si>
-  <si>
-    <t>PERFORMUS</t>
-  </si>
-  <si>
-    <t>METERMUS-IMC</t>
-  </si>
-  <si>
-    <t>TANGAU</t>
-  </si>
-  <si>
-    <t>EDUCANCOLAGE</t>
-  </si>
-  <si>
-    <t>LYRITUX</t>
-  </si>
-  <si>
-    <t>METABOMU</t>
-  </si>
-  <si>
-    <t>ISIRECC</t>
-  </si>
-  <si>
-    <t>USIMaPI</t>
-  </si>
-  <si>
-    <t>FADEMELA</t>
+    <t>ASAP</t>
   </si>
   <si>
     <t>COVIQuest</t>
@@ -814,69 +859,69 @@
     <t>RACO-MA</t>
   </si>
   <si>
-    <t>ASAP</t>
+    <t>RENALIFE</t>
+  </si>
+  <si>
+    <t>UMATH</t>
+  </si>
+  <si>
+    <t>CAPE_COD</t>
   </si>
   <si>
     <t>EvER-ILD</t>
   </si>
   <si>
-    <t>CAPE_COD</t>
-  </si>
-  <si>
-    <t>RENALIFE</t>
-  </si>
-  <si>
-    <t>UMATH</t>
-  </si>
-  <si>
     <t>PLASMYC</t>
   </si>
   <si>
     <t>INGRAPH</t>
   </si>
   <si>
+    <t>FIBRATLAS</t>
+  </si>
+  <si>
+    <t>T-TREAt</t>
+  </si>
+  <si>
+    <t>AMIKINHAL</t>
+  </si>
+  <si>
     <t>BIORESA</t>
   </si>
   <si>
-    <t>FIBRATLAS</t>
-  </si>
-  <si>
     <t>APACHE-4</t>
   </si>
   <si>
-    <t>AMIKINHAL</t>
-  </si>
-  <si>
-    <t>T-TREAt</t>
+    <t>PRECOSS</t>
+  </si>
+  <si>
+    <t>SONCHIMIO</t>
   </si>
   <si>
     <t>GLEEPHEN</t>
   </si>
   <si>
-    <t>PRECOSS</t>
-  </si>
-  <si>
     <t>LEVNEONAT-1</t>
   </si>
   <si>
-    <t>SONCHIMIO</t>
-  </si>
-  <si>
     <t>ACUCESAR</t>
   </si>
   <si>
+    <t>EVERDAC</t>
+  </si>
+  <si>
+    <t>ELASTOGLI</t>
+  </si>
+  <si>
+    <t>EspacECU</t>
+  </si>
+  <si>
+    <t>HARD-COVID19</t>
+  </si>
+  <si>
     <t>LARMOMIQUE</t>
   </si>
   <si>
-    <t>ELASTOGLI</t>
-  </si>
-  <si>
-    <t>HARD-COVID19</t>
-  </si>
-  <si>
-    <t>EVERDAC</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
@@ -893,9 +938,6 @@
   </si>
   <si>
     <t>BIOLOGICAL</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -1259,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,13 +1347,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1325,13 +1367,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1345,13 +1387,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1365,13 +1407,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1385,59 +1427,59 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1451,13 +1493,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="H9" t="s">
+        <v>226</v>
       </c>
       <c r="I9" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1471,16 +1516,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1494,56 +1536,56 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1557,16 +1599,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="I14" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1579,17 +1621,20 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="I15" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1603,16 +1648,16 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I16" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1626,16 +1671,16 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I17" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1649,13 +1694,16 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="I18" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1669,16 +1717,13 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1692,16 +1737,16 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H20" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I20" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1715,16 +1760,16 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1738,16 +1783,16 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1761,16 +1806,16 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1784,16 +1829,16 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="I24" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1807,16 +1852,16 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1830,16 +1875,16 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1853,16 +1898,16 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H27" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1876,39 +1921,39 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="I29" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1921,17 +1966,20 @@
       <c r="C30" t="s">
         <v>45</v>
       </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1945,39 +1993,42 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1990,63 +2041,66 @@
       <c r="C33" t="s">
         <v>48</v>
       </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="I35" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2059,17 +2113,20 @@
       <c r="C36" t="s">
         <v>51</v>
       </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2082,17 +2139,20 @@
       <c r="C37" t="s">
         <v>52</v>
       </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2106,59 +2166,62 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I38" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="I40" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2171,132 +2234,138 @@
       <c r="C41" t="s">
         <v>56</v>
       </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
       <c r="F42" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="I42" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
-      </c>
-      <c r="H44" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="I45" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H46" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="I46" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2310,105 +2379,108 @@
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H47" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I47" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="I48" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="I50" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G51" t="s">
-        <v>170</v>
+        <v>183</v>
+      </c>
+      <c r="H51" t="s">
+        <v>263</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2422,16 +2494,16 @@
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H52" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="I52" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2445,16 +2517,16 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="I53" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2468,16 +2540,16 @@
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="I54" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2491,16 +2563,16 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="I55" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2514,39 +2586,39 @@
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="I56" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H57" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="I57" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2560,16 +2632,16 @@
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="I58" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2583,16 +2655,16 @@
         <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="I59" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2606,16 +2678,16 @@
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H60" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="I60" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2629,62 +2701,68 @@
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G61" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H61" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="I61" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G62" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="I62" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
       <c r="F63" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G63" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I63" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2698,16 +2776,16 @@
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G64" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H64" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="I64" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2721,62 +2799,62 @@
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="I65" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="I66" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="I67" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2790,108 +2868,108 @@
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G68" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="I68" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G69" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H69" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="I69" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G70" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H70" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="I70" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="I71" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G72" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H72" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="I72" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2905,16 +2983,16 @@
         <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G73" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H73" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I73" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2928,16 +3006,16 @@
         <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G74" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="H74" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="I74" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2951,16 +3029,16 @@
         <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G75" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H75" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="I75" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2974,36 +3052,39 @@
         <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G76" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H76" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G77" t="s">
-        <v>196</v>
+        <v>209</v>
+      </c>
+      <c r="H77" t="s">
+        <v>289</v>
       </c>
       <c r="I77" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3017,82 +3098,79 @@
         <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G78" t="s">
-        <v>197</v>
-      </c>
-      <c r="H78" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="I78" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G79" t="s">
-        <v>198</v>
+        <v>211</v>
+      </c>
+      <c r="H79" t="s">
+        <v>290</v>
       </c>
       <c r="I79" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G80" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H80" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="I80" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
-      </c>
-      <c r="H81" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="I81" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3106,16 +3184,16 @@
         <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G82" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H82" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="I82" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3129,62 +3207,62 @@
         <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G83" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H83" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="I83" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H84" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="I84" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G85" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H85" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I85" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3198,39 +3276,39 @@
         <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H86" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H87" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="I87" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3244,16 +3322,16 @@
         <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G88" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="I88" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3267,39 +3345,62 @@
         <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H89" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="I89" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G90" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H90" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="I90" t="s">
-        <v>287</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" t="s">
+        <v>134</v>
+      </c>
+      <c r="G91" t="s">
+        <v>223</v>
+      </c>
+      <c r="H91" t="s">
+        <v>301</v>
+      </c>
+      <c r="I91" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
